--- a/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
+++ b/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sp/Desktop/Employee-Data-Insights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED22BF91-745A-7742-811C-74B45EBBB85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0040C-893C-8A45-9CE2-B966371257A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="4" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -4853,30 +4853,50 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5242086-4C02-44DA-AFAA-906A5824F81D}">
-  <dimension ref="B1:B6"/>
+  <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f>MAX(staff[Salary])</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="str" cm="1">
+        <f t="array" ref="C4">_xlfn.XLOOKUP(C3,staff[Salary],staff[First Name]&amp;" "&amp; staff[Last Name],"Not Available",0,1)</f>
+        <v>Minerva Ricardot</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>801</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6:C7">_xlfn._xlws.FILTER(staff[First Name]&amp;" "&amp; staff[Last Name],staff[Salary]=MAX(staff[Salary]),"Not Found")</f>
+        <v>Minerva Ricardot</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="str">
+        <v>Mick Spraberry</v>
       </c>
     </row>
   </sheetData>
@@ -5081,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B479A4F1-4E45-484A-ABC8-9580270FCB97}">
   <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="177" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="177" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19423,8 +19443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7522B8E-72AC-AA4B-80AD-49361CA14001}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19445,7 +19465,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3:G3">_xlfn.CHOOSECOLS(staff[#Headers],1,2,3,4,5,6,8)</f>
+        <f t="array" ref="A3:H3">_xlfn.CHOOSECOLS(staff[#Headers],1,2,3,4,5,6,7,8)</f>
         <v>Emp ID</v>
       </c>
       <c r="B3" t="str">
@@ -19464,6 +19484,9 @@
         <v>Salary</v>
       </c>
       <c r="G3" t="str">
+        <v>Salary Bucket</v>
+      </c>
+      <c r="H3" s="42" t="str">
         <v>Start Date</v>
       </c>
     </row>
@@ -19953,7 +19976,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20213,10 +20236,7 @@
       <c r="A20" t="s">
         <v>782</v>
       </c>
-      <c r="B20" s="26" cm="1">
-        <f t="array" ref="B20:B24">_xlfn.TAKE(_xlfn._xlws.SORT(staff[Salary],,-1),B17)</f>
-        <v>120000</v>
-      </c>
+      <c r="B20" s="26"/>
       <c r="C20" s="34" cm="1">
         <f t="array" ref="C20:C24">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]=$C3),,-1),B17)</f>
         <v>120000</v>
@@ -20227,9 +20247,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="26">
-        <v>120000</v>
-      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="34">
         <v>119022.49</v>
       </c>
@@ -20238,9 +20256,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="26">
-        <v>119022.49</v>
-      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="34">
         <v>118976.16</v>
       </c>
@@ -20249,9 +20265,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="26">
-        <v>118976.16</v>
-      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="34">
         <v>115191.38</v>
       </c>
@@ -20260,9 +20274,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="26">
-        <v>118442.54</v>
-      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="34">
         <v>114691.03</v>
       </c>
@@ -20386,10 +20398,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0948135B-AE34-401C-B471-F2924D1395CF}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20564,12 +20576,6 @@
         <v>72876.91</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C22" t="str">
-        <f>VLOOKUP(C14,staff[],5,1)</f>
-        <v>Product Management</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B13:G13"/>
@@ -20580,24 +20586,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F589228-BA26-4231-9263-D726A4AE86F6}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="263" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>794</v>
       </c>
@@ -20608,7 +20614,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>25</v>
       </c>
@@ -20617,7 +20623,7 @@
         <v>Edd</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>26</v>
       </c>
@@ -20626,7 +20632,7 @@
         <v>MacKnockiter</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>28</v>
       </c>
@@ -20635,7 +20641,7 @@
         <v>Accounting</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>29</v>
       </c>
@@ -20644,7 +20650,7 @@
         <v>119022.49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>792</v>
       </c>
@@ -20654,31 +20660,143 @@
       <c r="G12" s="27" t="s">
         <v>798</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
         <v>797</v>
       </c>
-      <c r="C14">
-        <f>_xlfn.XLOOKUP(A12,staff[Last Name],staff[Emp ID],0)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
+      <c r="C14" t="str">
         <f>_xlfn.XLOOKUP(C12,staff[Last Name],staff[Emp ID],0)</f>
         <v>PR00113</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" t="str" cm="1">
+        <f t="array" ref="G14:S14">_xlfn.XLOOKUP(C12,staff[Last Name],staff[],"Not Found",0)</f>
+        <v>PR00113</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Van</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Tuxwell</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="L14">
+        <v>80695.740000000005</v>
+      </c>
+      <c r="M14" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N14">
+        <v>43360</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="R14">
+        <v>5.7643835616438359</v>
+      </c>
+      <c r="S14" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" t="str">
+        <f>_xlfn.XLOOKUP($C$12,staff[Last Name],staff[Department],"Not found",0,)</f>
+        <v>Business Development</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>29</v>
+      </c>
+      <c r="C16">
+        <f>_xlfn.XLOOKUP($C$12,staff[Last Name],staff[Salary],"Not found",0,)</f>
+        <v>80695.740000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="27" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="str" cm="1">
+        <f t="array" ref="G19:G31">TRANSPOSE(_xlfn.XLOOKUP(C12,staff[Last Name],staff[],"Not Found",0))</f>
+        <v>PR00113</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <v>Van</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="str">
+        <v>Tuxwell</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" t="str">
+        <v>Female</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <v>Business Development</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>80695.740000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" t="str">
+        <v>50k to 100k</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>43360</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" t="str">
+        <v>Permanent</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G29" t="str">
+        <v>Columbus, USA</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>5.7643835616438359</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G31" t="str">
+        <v>Full time</v>
       </c>
     </row>
   </sheetData>

--- a/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
+++ b/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sp/Desktop/Employee-Data-Insights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0040C-893C-8A45-9CE2-B966371257A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254392F-AD0B-5C49-8679-4EEDFF66D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
   </bookViews>
@@ -23,9 +23,12 @@
     <sheet name="9" sheetId="7" r:id="rId8"/>
     <sheet name="10" sheetId="8" r:id="rId9"/>
     <sheet name="11" sheetId="9" r:id="rId10"/>
-    <sheet name="14" sheetId="11" r:id="rId11"/>
-    <sheet name="12" sheetId="10" r:id="rId12"/>
+    <sheet name="12" sheetId="10" r:id="rId11"/>
+    <sheet name="14" sheetId="11" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'12'!$B$4:$D$263</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="820">
   <si>
     <t>Essential Excel Functions &amp; Formulas</t>
   </si>
@@ -2527,6 +2530,9 @@
   </si>
   <si>
     <t>find all employees with 120000 salary</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -2864,13 +2870,16 @@
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -2945,21 +2954,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39788D91-F5B9-496B-94EF-C3A4602C3B4E}" name="staff" displayName="staff" ref="A1:M261" totalsRowShown="0">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39788D91-F5B9-496B-94EF-C3A4602C3B4E}" name="staff" displayName="staff" ref="A1:N261" totalsRowShown="0">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{621ED446-8957-40DD-AC6B-306E51CB363A}" name="Emp ID"/>
     <tableColumn id="2" xr3:uid="{06E81D82-C308-43C1-BA8E-E8A50BCBCED3}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{87F8C61E-0A2A-4D5E-B5CE-A164C9F6B330}" name="Last Name"/>
     <tableColumn id="4" xr3:uid="{86E12E19-DEF8-4F6D-B1BF-AAA3F1C5E5E1}" name="Gender"/>
     <tableColumn id="5" xr3:uid="{AB33D81B-F204-46F4-A10C-097A1E5D35BD}" name="Department"/>
-    <tableColumn id="6" xr3:uid="{94FE521D-0662-46DF-B0C7-697BF5EAB810}" name="Salary" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{94FE521D-0662-46DF-B0C7-697BF5EAB810}" name="Salary" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{69E0FEED-A266-4D74-99DF-2617CACDC85A}" name="Salary Bucket"/>
-    <tableColumn id="8" xr3:uid="{B06826F1-45D0-4979-945A-650E2166E609}" name="Start Date" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B06826F1-45D0-4979-945A-650E2166E609}" name="Start Date" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{1649F9AF-8482-4385-A880-9D79D666F874}" name="FTE"/>
     <tableColumn id="10" xr3:uid="{FD412FAB-D1D5-4C13-86B3-3C32F1D207BD}" name="Employee type"/>
     <tableColumn id="11" xr3:uid="{5A83ED87-4F55-4CA0-BCA6-B1CDA2F2F0A6}" name="Work location"/>
-    <tableColumn id="12" xr3:uid="{93BC06F4-5F38-4CF6-B8B9-BB3ECC954F94}" name="Tenure" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{93BC06F4-5F38-4CF6-B8B9-BB3ECC954F94}" name="Tenure" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{8265356C-F75F-4079-A6F0-01CC6A595EB2}" name="Work Type"/>
+    <tableColumn id="14" xr3:uid="{5198FA6A-9EB9-264A-B0C1-D1CD34725AFE}" name="Column1" dataDxfId="1">
+      <calculatedColumnFormula>MONTH(H2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4905,6 +4917,2898 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5261174D-7B41-4677-B7AD-2966004EA369}">
+  <dimension ref="B1:D263"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4:D263">_xlfn._xlws.FILTER(staff[Emp ID]:staff[Last Name],MONTH(staff[Start Date]=3),"Not Found")</f>
+        <v>PR00147</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Minerva</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Ricardot</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Spraberry</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <v>PR03886</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Edd</v>
+      </c>
+      <c r="D6" t="str">
+        <v>MacKnockiter</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
+        <v>SQ00144</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Collen</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Dunbleton</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Yitzhok</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Lakshmi</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Ogale</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="str">
+        <v>Scad</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Prerana</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Nishita</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
+        <v>SQ02624</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Gwenneth</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Fealey</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="str">
+        <v>VT02801</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Shellysheldon</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Mahady</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="str">
+        <v>VT02491</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Alexis</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Gotfrey</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
+        <v>TN01281</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Cletus</v>
+      </c>
+      <c r="D15" t="str">
+        <v>McGarahan</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="str">
+        <v>PR00746</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Iles</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Bagg</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Bagg</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="str">
+        <v>SQ01620</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Westbrook</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Brandino</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="str">
+        <v>VT01893</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Lindy</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Guillet</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="str">
+        <v>VT01893</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Lindy</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Guillet</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="str">
+        <v>PR01159</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Mollie</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Hanway</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Rolf</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Rolf</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="str">
+        <v>SQ04603</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Natalee</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Craiker</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="str">
+        <v>SQ00498</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Amery</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Ofer</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="str">
+        <v>VT04681</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Nickolai</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Artin</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="str">
+        <v>SQ00022</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Carlin</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Demke</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="str">
+        <v>TN00579</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Rafaelita</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Blaksland</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <v>SQ03733</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Revkah</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Antonacci</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="str">
+        <v>SQ03116</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Syd</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Fearn</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <v>SQ03476</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Ramalingam</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Kothapeta</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="str">
+        <v>TN04058</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Subbarao</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Malladi</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="str">
+        <v>TN04058</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Vasu</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Nandin</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="str">
+        <v>VT04552</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Theresita</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Chasmer</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Kulbhushan</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Moorthy</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Lalit</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Kothari</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="str">
+        <v>SQ02703</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Deepit</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Ranjana</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <v>PR04601</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Yedukondalu</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Panditula</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <v>PR02288</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Althea</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Bronger</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="str">
+        <v>TN04740</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Tristam</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Cuming</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <v>SQ02035</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Anni</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Izzard</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="str">
+        <v>SQ02035</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Anni</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Izzard</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="str">
+        <v>PR02208</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Gowri</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Sankar</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="str">
+        <v>VT01762</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Geena</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Raghavanpillai</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Legan</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="str">
+        <v>VT01684</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Audry</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Yu</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="str">
+        <v>SQ03387</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Robinia</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Scholling</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="str">
+        <v>SQ04665</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Collin</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Jagson</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="str">
+        <v>TN04246</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Shaylyn</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Ransbury</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="str">
+        <v>SQ02465</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Bernie</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Gorges</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="str">
+        <v>TN03575</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Janina</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Wolverson</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="str">
+        <v>TN03575</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Janina</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Wolverson</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="str">
+        <v>TN01340</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Granny</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Spencelayh</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="str">
+        <v>TN04428</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Tadio</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Audritt</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="str">
+        <v>TN04428</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Tadio</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Audritt</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="str">
+        <v>TN02377</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Anjela</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Spancock</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="str">
+        <v>PR04686</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Oona</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Donan</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="str">
+        <v>PR01269</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Eleonore</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Airdrie</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="str">
+        <v>TN02674</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Antonetta</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Coggeshall</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="str">
+        <v>TN02674</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Antonetta</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Coggeshall</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="str">
+        <v>VT02319</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Tarala</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Vishaal</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="str">
+        <v>PR00007</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Collier</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="str">
+        <v>PR02140</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Anjushri</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Chandiramani</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="str">
+        <v>SQ03626</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Krishnakanta</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Vellanki</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="str">
+        <v>VT01101</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Adela</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Dowsett</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="str">
+        <v>TN00328</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Jeannie</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Petracco</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="str">
+        <v>TN04265</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Rushil</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Kripa</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="str">
+        <v>VT01803</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Freddy</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Linford</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="str">
+        <v>TN02988</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Mahindra</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Sreedharan</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="str">
+        <v>TN04175</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Hinda</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Label</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="str">
+        <v>PR04446</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Sameer</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Shashank</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="str">
+        <v>TN04166</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Tadio</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Dowdle</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="str">
+        <v>PR01211</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Enoch</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Dowrey</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="str">
+        <v>VT00534</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Roselle</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Wandrach</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="str">
+        <v>SQ02559</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Aldrich</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Glenny</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="str">
+        <v>SQ02559</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Aldrich</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Glenny</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="str">
+        <v>TN02204</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Aldrich</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Glenny</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="str">
+        <v>SQ01395</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Dennison</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Crosswaite</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="str">
+        <v>VT00476</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Adolph</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Hartin</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" t="str">
+        <v>TN01210</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Alyosha</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Riquet</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="str">
+        <v>VT03701</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Narois</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Motiwala</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" t="str">
+        <v>PR03158</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Danica</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Nayshe</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="str">
+        <v>SQ00841</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Bhuvan</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Pals</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" t="str">
+        <v>SQ02638</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Cara</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Havers</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" t="str">
+        <v>TN01912</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Fred</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Dudeney</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" t="str">
+        <v>TN01632</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Katya</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Hundy</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" t="str">
+        <v>SQ02643</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Indu</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Varada</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" t="str">
+        <v>TN00698</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Barbara-anne</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Kenchington</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" t="str">
+        <v>VT01523</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Charmane</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Heistermann</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" t="str">
+        <v>SQ01177</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Nazeer</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Basha</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" t="str">
+        <v>VT01323</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Mardav</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Ramaswami</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="str">
+        <v>SQ00105</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Sarayu</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Ragunathan</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="str">
+        <v>PR01346</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Adolph</v>
+      </c>
+      <c r="D94" t="str">
+        <v>McNalley</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" t="str">
+        <v>SQ02246</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Matias</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Cormack</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" t="str">
+        <v>SQ04613</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Sarojini</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Naueshwara</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" t="str">
+        <v>TN02883</v>
+      </c>
+      <c r="C97" t="str">
+        <v>John</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Joseph</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="str">
+        <v>PR02957</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Vaughn</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Carvill</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" t="str">
+        <v>PR01306</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Patti</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Dradey</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Carrett</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Carrett</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" t="str">
+        <v>PR00916</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Inger</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Chapelhow</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" t="str">
+        <v>VT03993</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Dulce</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Colbeck</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" t="str">
+        <v>VT03307</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Tallie</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Chaikovski</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" t="str">
+        <v>VT03298</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Nonah</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Bissell</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" t="str">
+        <v>PR02321</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Evanne</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Sheryn</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" t="str">
+        <v>VT03771</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Marjie</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Bamford</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" t="str">
+        <v>PR00113</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Tuxwell</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" t="str">
+        <v>PR00113</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Tuxwell</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" t="str">
+        <v>PR04380</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Tuxwell</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" t="str">
+        <v>TN01566</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Fonzie</v>
+      </c>
+      <c r="D111" t="str">
+        <v>O'Shea</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" t="str">
+        <v>TN01876</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Aileen</v>
+      </c>
+      <c r="D112" t="str">
+        <v>McCritchie</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" t="str">
+        <v>TN01876</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Aileen</v>
+      </c>
+      <c r="D113" t="str">
+        <v>McCritchie</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" t="str">
+        <v>TN03210</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Suman</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Katte</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" t="str">
+        <v>VT04137</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Marissa</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Infante</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" t="str">
+        <v>TN03355</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Ruby</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Cracie</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" t="str">
+        <v>VT00687</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Godavari</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Veena</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" t="str">
+        <v>PR02436</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Marmaduke</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Worssam</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" t="str">
+        <v>SQ03625</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Fidela</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Artis</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" t="str">
+        <v>SQ03112</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Kantimoy</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Pritish</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" t="str">
+        <v>PR01476</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Jaishree</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Atasi</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" t="str">
+        <v>PR04851</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Rodina</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Drinan</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" t="str">
+        <v>SQ04488</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Ramnath</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Ravuri</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" t="str">
+        <v>VT04627</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Yvette</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Bett</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" t="str">
+        <v>VT01610</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Dhruv</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Manjunath</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" t="str">
+        <v>VT01610</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Kunja</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Prashanta</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" t="str">
+        <v>PR02113</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Beverie</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Moffet</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" t="str">
+        <v>SQ03546</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Amlankusum</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Rajabhushan</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" t="str">
+        <v>TN00182</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Camilla</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Castle</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" t="str">
+        <v>SQ01026</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Anumati</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Shyamari</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" t="str">
+        <v>SQ00612</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Leena</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Bruckshaw</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" t="str">
+        <v>TN04067</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Lea</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Chaplin</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" t="str">
+        <v>VT03537</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Renaldo</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Thomassin</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" t="str">
+        <v>VT03537</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Renaldo</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Thomassin</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" t="str">
+        <v>PR03532</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Crawford</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Scad</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" t="str">
+        <v>TN03331</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Crawford</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Scad</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" t="str">
+        <v>TN04101</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Marline</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Wahncke</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" t="str">
+        <v>PR01383</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Addi</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Studdeard</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" t="str">
+        <v>SQ04960</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Shubhra</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Potla</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" t="str">
+        <v>VT02374</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Jewis</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B141" t="str">
+        <v>VT02374</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Jewis</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" t="str">
+        <v>TN00890</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Mayur</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Kousika</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B143" t="str">
+        <v>SQ01697</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Makshi</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Vinutha</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" t="str">
+        <v>SQ00187</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Rupak</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Mehra</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" t="str">
+        <v>VT04467</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Amal</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Nimesh</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" t="str">
+        <v>PR00095</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Devrat</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Damarsingh</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147" t="str">
+        <v>SQ04598</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Pearla</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Beteriss</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148" t="str">
+        <v>SQ02371</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Alida</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Welman</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149" t="str">
+        <v>TN04660</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Thedrick</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Bothwell</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" t="str">
+        <v>TN02205</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Madhumati</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Gazala</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B151" t="str">
+        <v>PR04473</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Wyn</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Treadger</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" t="str">
+        <v>TN02570</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Grady</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Rochelle</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B153" t="str">
+        <v>TN02570</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Grady</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Rochelle</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" t="str">
+        <v>SQ03024</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Inge</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Creer</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B155" t="str">
+        <v>SQ03024</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Inge</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Creer</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B156" t="str">
+        <v>PR00419</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Billi</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Fellgate</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B157" t="str">
+        <v>SQ03321</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Gradey</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Litton</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158" t="str">
+        <v>SQ01637</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Joaquin</v>
+      </c>
+      <c r="D158" t="str">
+        <v>McVitty</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B159" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Jickells</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B160" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Jickells</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" t="str">
+        <v>TN00258</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Joyce</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Leyband</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162" t="str">
+        <v>SQ01283</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Barr</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Faughny</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" t="str">
+        <v>TN02496</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Ponnan</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Delhi</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164" t="str">
+        <v>PR00246</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Husein</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Augar</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" t="str">
+        <v>TN03169</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Doe</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Clubley</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166" t="str">
+        <v>TN03169</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Doe</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Clubley</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" t="str">
+        <v>TN01028</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Alicea</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Pudsall</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B168" t="str">
+        <v>SQ03350</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Felice</v>
+      </c>
+      <c r="D168" t="str">
+        <v>McMurty</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" t="str">
+        <v>SQ03350</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Felice</v>
+      </c>
+      <c r="D169" t="str">
+        <v>McMurty</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B170" t="str">
+        <v>PR03804</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Pratigya</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Rema</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B171" t="str">
+        <v>PR03804</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Sartaj</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Probal</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B172" t="str">
+        <v>SQ01854</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Jessica</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Callcott</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B173" t="str">
+        <v>PR03980</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Kath</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Bletsoe</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B174" t="str">
+        <v>VT01996</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Hali</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Behnecke</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175" t="str">
+        <v>PR00576</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Lalitchandra</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Vadali</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B176" t="str">
+        <v>TN00227</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Raghuveer</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Yettugunna</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B177" t="str">
+        <v>VT03704</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Egor</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Minto</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B178" t="str">
+        <v>SQ00070</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Larissa</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Ingledow</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B179" t="str">
+        <v>PR03445</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Myrle</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Prandoni</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B180" t="str">
+        <v>PR02603</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Dinanath</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Simhambhatla</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B181" t="str">
+        <v>TN00083</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Chandana</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Sannidhi</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B182" t="str">
+        <v>VT01703</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Upendra</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Swati</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B183" t="str">
+        <v>VT02417</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Evangelina</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Lergan</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B184" t="str">
+        <v>SQ00286</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Ilesh</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Dasgupta</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B185" t="str">
+        <v>VT02260</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Rhiamon</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Mollison</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B186" t="str">
+        <v>TN00735</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Caresa</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Christer</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B187" t="str">
+        <v>TN00735</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Caresa</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Christer</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B188" t="str">
+        <v>VT03988</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Venkat</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Kodi</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B189" t="str">
+        <v>PR02016</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Iris</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Wagg</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B190" t="str">
+        <v>VT04415</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Malory</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Biles</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B191" t="str">
+        <v>TN01701</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Yves</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Pawlik</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B192" t="str">
+        <v>VT01092</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Tabby</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Astall</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B193" t="str">
+        <v>TN02749</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Parasuramudu</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Jamakayala</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B194" t="str">
+        <v>SQ02565</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Konstantin</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Timblett</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B195" t="str">
+        <v>SQ00691</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Verla</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Timmis</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B196" t="str">
+        <v>VT02313</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Thekla</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Lynnett</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B197" t="str">
+        <v>VT02313</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Thekla</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Lynnett</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B198" t="str">
+        <v>VT01246</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Zach</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Polon</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B199" t="str">
+        <v>TN04892</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Luca</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Wolstenholme</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B200" t="str">
+        <v>PR00882</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Jill</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Shipsey</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B201" t="str">
+        <v>TN00464</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Gopal</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Venkata</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B202" t="str">
+        <v>SQ02424</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Kevalkumar</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Solanki</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B203" t="str">
+        <v>VT03849</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Leonidas</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Cavaney</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B204" t="str">
+        <v>SQ02582</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Kaishori</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Harathi</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B205" t="str">
+        <v>VT02118</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Oorjit</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Nandanavanam</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B206" t="str">
+        <v>SQ02525</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Mickie</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Dagwell</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B207" t="str">
+        <v>PR01662</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Genevra</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B208" t="str">
+        <v>PR00893</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Vasavi</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Veeravasarapu</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B209" t="str">
+        <v>SQ01519</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Caron</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Kolakovic</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B210" t="str">
+        <v>VT00194</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Violante</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Courtonne</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B211" t="str">
+        <v>PR01943</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Rameshwari</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Chikodi</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B212" t="str">
+        <v>VT00336</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Shevantilal</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Muppala</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B213" t="str">
+        <v>PR04366</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Carry</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Loblie</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B214" t="str">
+        <v>VT04984</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Dell</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Molloy</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B215" t="str">
+        <v>VT00740</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Chitrasen</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Laul</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B216" t="str">
+        <v>SQ02223</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Pippy</v>
+      </c>
+      <c r="D216" t="str">
+        <v>Shepperd</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B217" t="str">
+        <v>SQ00960</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Calvin</v>
+      </c>
+      <c r="D217" t="str">
+        <v>O'Carroll</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B218" t="str">
+        <v>SQ01402</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Sahaj</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Jonnalagadda</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B219" t="str">
+        <v>TN03416</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Seward</v>
+      </c>
+      <c r="D219" t="str">
+        <v>Kubera</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B220" t="str">
+        <v>VT00578</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Magnum</v>
+      </c>
+      <c r="D220" t="str">
+        <v>Locksley</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B221" t="str">
+        <v>TN00727</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Dulsea</v>
+      </c>
+      <c r="D221" t="str">
+        <v>Folkes</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B222" t="str">
+        <v>PR02275</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Louise</v>
+      </c>
+      <c r="D222" t="str">
+        <v>Lamming</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B223" t="str">
+        <v>SQ00450</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Louise</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Lamming</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B224" t="str">
+        <v>SQ00360</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Orlando</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Gorstidge</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B225" t="str">
+        <v>SQ01998</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Vanmala</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Shriharsha</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B226" t="str">
+        <v>SQ01998</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Sahas</v>
+      </c>
+      <c r="D226" t="str">
+        <v>Sanabhi</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B227" t="str">
+        <v>VT02539</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Devinne</v>
+      </c>
+      <c r="D227" t="str">
+        <v>Tuny</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B228" t="str">
+        <v>TN03068</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Gumwant</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Veera</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B229" t="str">
+        <v>TN03032</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Jaipal</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Potanapudi</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B230" t="str">
+        <v>TN03032</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Fullara</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Sushanti</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B231" t="str">
+        <v>PR03271</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Stan</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Tolliday</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B232" t="str">
+        <v>VT04273</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Brad</v>
+      </c>
+      <c r="D232" t="str">
+        <v>Gumb</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B233" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Duran</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Appala</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B234" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Karuna</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Pashupathy</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B235" t="str">
+        <v>TN00214</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Devsena</v>
+      </c>
+      <c r="D235" t="str">
+        <v>Veluvalapalli</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B236" t="str">
+        <v>TN00214</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Hemavati</v>
+      </c>
+      <c r="D236" t="str">
+        <v>Muthiah</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B237" t="str">
+        <v>PR02782</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Isaak</v>
+      </c>
+      <c r="D237" t="str">
+        <v>Rawne</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B238" t="str">
+        <v>VT03500</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Shiuli</v>
+      </c>
+      <c r="D238" t="str">
+        <v>Sapna</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B239" t="str">
+        <v>PR03137</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Jagajeet</v>
+      </c>
+      <c r="D239" t="str">
+        <v>Viraj</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B240" t="str">
+        <v>PR01956</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Jamesy</v>
+      </c>
+      <c r="D240" t="str">
+        <v>O'Ferris</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B241" t="str">
+        <v>PR01956</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Jamesy</v>
+      </c>
+      <c r="D241" t="str">
+        <v>O'Ferris</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B242" t="str">
+        <v>VT03552</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Kamalakshi</v>
+      </c>
+      <c r="D242" t="str">
+        <v>Mukundan</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B243" t="str">
+        <v>PR03844</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Brose</v>
+      </c>
+      <c r="D243" t="str">
+        <v>MacCorkell</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B244" t="str">
+        <v>PR01055</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Devasree</v>
+      </c>
+      <c r="D244" t="str">
+        <v>Fullara</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B245" t="str">
+        <v>TN02798</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Krittika</v>
+      </c>
+      <c r="D245" t="str">
+        <v>Gaekwad</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B246" t="str">
+        <v>VT02532</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Adey</v>
+      </c>
+      <c r="D246" t="str">
+        <v>Ryal</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B247" t="str">
+        <v>SQ01730</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Austine</v>
+      </c>
+      <c r="D247" t="str">
+        <v>Littlewood</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B248" t="str">
+        <v>PR03034</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Sreenivasa</v>
+      </c>
+      <c r="D248" t="str">
+        <v>Naik</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B249" t="str">
+        <v>TN03097</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Bendite</v>
+      </c>
+      <c r="D249" t="str">
+        <v>Bloan</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B250" t="str">
+        <v>SQ01829</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Mabel</v>
+      </c>
+      <c r="D250" t="str">
+        <v>Orrow</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B251" t="str">
+        <v>VT01740</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Ginger</v>
+      </c>
+      <c r="D251" t="str">
+        <v>Myott</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B252" t="str">
+        <v>TN04775</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Hridaynath</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Tendulkar</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B253" t="str">
+        <v>VT01249</v>
+      </c>
+      <c r="C253" t="str">
+        <v>Brendan</v>
+      </c>
+      <c r="D253" t="str">
+        <v>Edgeller</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B254" t="str">
+        <v>TN01396</v>
+      </c>
+      <c r="C254" t="str">
+        <v>Koral</v>
+      </c>
+      <c r="D254" t="str">
+        <v>Gerriet</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B255" t="str">
+        <v>VT04905</v>
+      </c>
+      <c r="C255" t="str">
+        <v>Suchira</v>
+      </c>
+      <c r="D255" t="str">
+        <v>Bhanupriya</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B256" t="str">
+        <v>PR00770</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Beryl</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Burnsyde</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" t="str">
+        <v>TN02727</v>
+      </c>
+      <c r="C257" t="str">
+        <v>Wald</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Bountiff</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B258" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C258" t="str">
+        <v>Shattesh</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Utpat</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Sawini</v>
+      </c>
+      <c r="D259" t="str">
+        <v>Chandan</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B260" t="str">
+        <v>VT02663</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Sravanthi</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Chalaki</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" t="str">
+        <v>TN02397</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Mendel</v>
+      </c>
+      <c r="D261" t="str">
+        <v>Gentsch</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B262" t="str">
+        <v>SQ04437</v>
+      </c>
+      <c r="C262" t="str">
+        <v>Hephzibah</v>
+      </c>
+      <c r="D262" t="str">
+        <v>Summerell</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263" t="str">
+        <v>VT04373</v>
+      </c>
+      <c r="C263" t="str">
+        <v>Edi</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Hofton</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC66D881-98C8-42C1-A95C-E8AA1245E44A}">
   <dimension ref="B1:I16"/>
   <sheetViews>
@@ -5066,43 +7970,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5261174D-7B41-4677-B7AD-2966004EA369}">
-  <dimension ref="B1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B479A4F1-4E45-484A-ABC8-9580270FCB97}">
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:N261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="177" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="177" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5114,7 +7987,7 @@
     <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="42" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -5122,7 +7995,7 @@
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -5144,7 +8017,7 @@
       <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="42" t="s">
         <v>31</v>
       </c>
       <c r="I1" s="21" t="s">
@@ -5162,8 +8035,11 @@
       <c r="M1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -5185,7 +8061,7 @@
       <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="42">
         <v>43416</v>
       </c>
       <c r="I2">
@@ -5203,8 +8079,12 @@
       <c r="M2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f t="shared" ref="N2:N65" si="0">MONTH(H2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>396</v>
       </c>
@@ -5226,7 +8106,7 @@
       <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="42">
         <v>43902</v>
       </c>
       <c r="I3">
@@ -5244,8 +8124,12 @@
       <c r="M3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -5267,7 +8151,7 @@
       <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="42">
         <v>44431</v>
       </c>
       <c r="I4">
@@ -5285,8 +8169,12 @@
       <c r="M4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -5308,7 +8196,7 @@
       <c r="G5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="42">
         <v>44120</v>
       </c>
       <c r="I5">
@@ -5326,8 +8214,12 @@
       <c r="M5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -5349,7 +8241,7 @@
       <c r="G6" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="42">
         <v>44193</v>
       </c>
       <c r="I6">
@@ -5367,8 +8259,12 @@
       <c r="M6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>722</v>
       </c>
@@ -5390,7 +8286,7 @@
       <c r="G7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="42">
         <v>43949</v>
       </c>
       <c r="I7">
@@ -5408,8 +8304,12 @@
       <c r="M7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>722</v>
       </c>
@@ -5431,7 +8331,7 @@
       <c r="G8" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="42">
         <v>43949</v>
       </c>
       <c r="I8">
@@ -5449,8 +8349,12 @@
       <c r="M8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -5472,7 +8376,7 @@
       <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="42">
         <v>44004</v>
       </c>
       <c r="I9">
@@ -5490,8 +8394,12 @@
       <c r="M9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -5513,7 +8421,7 @@
       <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="42">
         <v>44251</v>
       </c>
       <c r="I10">
@@ -5531,8 +8439,12 @@
       <c r="M10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>680</v>
       </c>
@@ -5554,7 +8466,7 @@
       <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="42">
         <v>44039</v>
       </c>
       <c r="I11">
@@ -5572,8 +8484,12 @@
       <c r="M11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>668</v>
       </c>
@@ -5595,7 +8511,7 @@
       <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="42">
         <v>43291</v>
       </c>
       <c r="I12">
@@ -5613,8 +8529,12 @@
       <c r="M12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>457</v>
       </c>
@@ -5636,7 +8556,7 @@
       <c r="G13" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="42">
         <v>43857</v>
       </c>
       <c r="I13">
@@ -5654,8 +8574,12 @@
       <c r="M13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -5677,7 +8601,7 @@
       <c r="G14" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="42">
         <v>43908</v>
       </c>
       <c r="I14">
@@ -5695,8 +8619,12 @@
       <c r="M14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>689</v>
       </c>
@@ -5718,7 +8646,7 @@
       <c r="G15" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="42">
         <v>44270</v>
       </c>
       <c r="I15">
@@ -5736,8 +8664,12 @@
       <c r="M15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>689</v>
       </c>
@@ -5759,7 +8691,7 @@
       <c r="G16" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="42">
         <v>44270</v>
       </c>
       <c r="I16">
@@ -5777,8 +8709,12 @@
       <c r="M16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -5800,7 +8736,7 @@
       <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="42">
         <v>43255</v>
       </c>
       <c r="I17">
@@ -5818,8 +8754,12 @@
       <c r="M17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>643</v>
       </c>
@@ -5841,7 +8781,7 @@
       <c r="G18" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="42">
         <v>43250</v>
       </c>
       <c r="I18">
@@ -5859,8 +8799,12 @@
       <c r="M18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>643</v>
       </c>
@@ -5882,7 +8826,7 @@
       <c r="G19" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="42">
         <v>43250</v>
       </c>
       <c r="I19">
@@ -5900,8 +8844,12 @@
       <c r="M19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -5923,7 +8871,7 @@
       <c r="G20" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="42">
         <v>43759</v>
       </c>
       <c r="I20">
@@ -5941,8 +8889,12 @@
       <c r="M20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>719</v>
       </c>
@@ -5964,7 +8916,7 @@
       <c r="G21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="42">
         <v>43895</v>
       </c>
       <c r="I21">
@@ -5982,8 +8934,12 @@
       <c r="M21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>719</v>
       </c>
@@ -6005,7 +8961,7 @@
       <c r="G22" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="42">
         <v>43895</v>
       </c>
       <c r="I22">
@@ -6023,8 +8979,12 @@
       <c r="M22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -6046,7 +9006,7 @@
       <c r="G23" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="42">
         <v>43402</v>
       </c>
       <c r="I23">
@@ -6064,8 +9024,12 @@
       <c r="M23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>242</v>
       </c>
@@ -6087,7 +9051,7 @@
       <c r="G24" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="42">
         <v>44393</v>
       </c>
       <c r="I24">
@@ -6105,8 +9069,12 @@
       <c r="M24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>753</v>
       </c>
@@ -6128,7 +9096,7 @@
       <c r="G25" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="42">
         <v>43434</v>
       </c>
       <c r="I25">
@@ -6146,8 +9114,12 @@
       <c r="M25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>220</v>
       </c>
@@ -6169,7 +9141,7 @@
       <c r="G26" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="42">
         <v>43914</v>
       </c>
       <c r="I26">
@@ -6187,8 +9159,12 @@
       <c r="M26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>431</v>
       </c>
@@ -6210,7 +9186,7 @@
       <c r="G27" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="42">
         <v>44019</v>
       </c>
       <c r="I27">
@@ -6228,8 +9204,12 @@
       <c r="M27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>381</v>
       </c>
@@ -6251,7 +9231,7 @@
       <c r="G28" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="42">
         <v>43945</v>
       </c>
       <c r="I28">
@@ -6269,8 +9249,12 @@
       <c r="M28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>354</v>
       </c>
@@ -6292,7 +9276,7 @@
       <c r="G29" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="42">
         <v>43521</v>
       </c>
       <c r="I29">
@@ -6310,8 +9294,12 @@
       <c r="M29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>366</v>
       </c>
@@ -6333,7 +9321,7 @@
       <c r="G30" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="42">
         <v>43325</v>
       </c>
       <c r="I30">
@@ -6351,8 +9339,12 @@
       <c r="M30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>545</v>
       </c>
@@ -6374,7 +9366,7 @@
       <c r="G31" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="42">
         <v>43563</v>
       </c>
       <c r="I31">
@@ -6392,8 +9384,12 @@
       <c r="M31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>545</v>
       </c>
@@ -6415,7 +9411,7 @@
       <c r="G32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="42">
         <v>43563</v>
       </c>
       <c r="I32">
@@ -6433,8 +9429,12 @@
       <c r="M32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>747</v>
       </c>
@@ -6456,7 +9456,7 @@
       <c r="G33" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="42">
         <v>43311</v>
       </c>
       <c r="I33">
@@ -6474,8 +9474,12 @@
       <c r="M33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>733</v>
       </c>
@@ -6497,7 +9501,7 @@
       <c r="G34" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="42">
         <v>44021</v>
       </c>
       <c r="I34">
@@ -6515,8 +9519,12 @@
       <c r="M34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -6538,7 +9546,7 @@
       <c r="G35" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="42">
         <v>44021</v>
       </c>
       <c r="I35">
@@ -6556,8 +9564,12 @@
       <c r="M35" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>345</v>
       </c>
@@ -6579,7 +9591,7 @@
       <c r="G36" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="42">
         <v>43649</v>
       </c>
       <c r="I36">
@@ -6597,8 +9609,12 @@
       <c r="M36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -6620,7 +9636,7 @@
       <c r="G37" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="42">
         <v>44502</v>
       </c>
       <c r="I37">
@@ -6638,8 +9654,12 @@
       <c r="M37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -6661,7 +9681,7 @@
       <c r="G38" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="42">
         <v>43874</v>
       </c>
       <c r="I38">
@@ -6679,8 +9699,12 @@
       <c r="M38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>573</v>
       </c>
@@ -6702,7 +9726,7 @@
       <c r="G39" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="42">
         <v>43815</v>
       </c>
       <c r="I39">
@@ -6720,8 +9744,12 @@
       <c r="M39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>303</v>
       </c>
@@ -6743,7 +9771,7 @@
       <c r="G40" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="42">
         <v>43256</v>
       </c>
       <c r="I40">
@@ -6761,8 +9789,12 @@
       <c r="M40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>303</v>
       </c>
@@ -6784,7 +9816,7 @@
       <c r="G41" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="42">
         <v>43256</v>
       </c>
       <c r="I41">
@@ -6802,8 +9834,12 @@
       <c r="M41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -6825,7 +9861,7 @@
       <c r="G42" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="42">
         <v>44315</v>
       </c>
       <c r="I42">
@@ -6843,8 +9879,12 @@
       <c r="M42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>637</v>
       </c>
@@ -6866,7 +9906,7 @@
       <c r="G43" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="42">
         <v>43902</v>
       </c>
       <c r="I43">
@@ -6884,8 +9924,12 @@
       <c r="M43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>369</v>
       </c>
@@ -6907,7 +9951,7 @@
       <c r="G44" t="s">
         <v>61</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="42">
         <v>44396</v>
       </c>
       <c r="I44">
@@ -6925,8 +9969,12 @@
       <c r="M44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>628</v>
       </c>
@@ -6948,7 +9996,7 @@
       <c r="G45" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="42">
         <v>43258</v>
       </c>
       <c r="I45">
@@ -6966,8 +10014,12 @@
       <c r="M45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>363</v>
       </c>
@@ -6989,7 +10041,7 @@
       <c r="G46" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="42">
         <v>43936</v>
       </c>
       <c r="I46">
@@ -7007,8 +10059,12 @@
       <c r="M46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>402</v>
       </c>
@@ -7030,7 +10086,7 @@
       <c r="G47" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="42">
         <v>43801</v>
       </c>
       <c r="I47">
@@ -7048,8 +10104,12 @@
       <c r="M47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>562</v>
       </c>
@@ -7071,7 +10131,7 @@
       <c r="G48" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="42">
         <v>44067</v>
       </c>
       <c r="I48">
@@ -7089,8 +10149,12 @@
       <c r="M48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>321</v>
       </c>
@@ -7112,7 +10176,7 @@
       <c r="G49" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="42">
         <v>43133</v>
       </c>
       <c r="I49">
@@ -7130,8 +10194,12 @@
       <c r="M49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>542</v>
       </c>
@@ -7153,7 +10221,7 @@
       <c r="G50" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="42">
         <v>43500</v>
       </c>
       <c r="I50">
@@ -7171,8 +10239,12 @@
       <c r="M50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>542</v>
       </c>
@@ -7194,7 +10266,7 @@
       <c r="G51" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="42">
         <v>43500</v>
       </c>
       <c r="I51">
@@ -7212,8 +10284,12 @@
       <c r="M51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>460</v>
       </c>
@@ -7235,7 +10311,7 @@
       <c r="G52" t="s">
         <v>42</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="42">
         <v>43956</v>
       </c>
       <c r="I52">
@@ -7253,8 +10329,12 @@
       <c r="M52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>568</v>
       </c>
@@ -7276,7 +10356,7 @@
       <c r="G53" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="42">
         <v>43473</v>
       </c>
       <c r="I53">
@@ -7294,8 +10374,12 @@
       <c r="M53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>568</v>
       </c>
@@ -7317,7 +10401,7 @@
       <c r="G54" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="42">
         <v>43473</v>
       </c>
       <c r="I54">
@@ -7335,8 +10419,12 @@
       <c r="M54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>488</v>
       </c>
@@ -7358,7 +10446,7 @@
       <c r="G55" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="42">
         <v>43780</v>
       </c>
       <c r="I55">
@@ -7376,8 +10464,12 @@
       <c r="M55" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -7399,7 +10491,7 @@
       <c r="G56" t="s">
         <v>42</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="42">
         <v>43710</v>
       </c>
       <c r="I56">
@@ -7417,8 +10509,12 @@
       <c r="M56" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -7440,7 +10536,7 @@
       <c r="G57" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="42">
         <v>44425</v>
       </c>
       <c r="I57">
@@ -7458,8 +10554,12 @@
       <c r="M57" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>500</v>
       </c>
@@ -7481,7 +10581,7 @@
       <c r="G58" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="42">
         <v>44494</v>
       </c>
       <c r="I58">
@@ -7499,8 +10599,12 @@
       <c r="M58" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>500</v>
       </c>
@@ -7522,7 +10626,7 @@
       <c r="G59" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="42">
         <v>44494</v>
       </c>
       <c r="I59">
@@ -7540,8 +10644,12 @@
       <c r="M59" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>659</v>
       </c>
@@ -7563,7 +10671,7 @@
       <c r="G60" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="42">
         <v>43489</v>
       </c>
       <c r="I60">
@@ -7581,8 +10689,12 @@
       <c r="M60" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -7604,7 +10716,7 @@
       <c r="G61" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="42">
         <v>44025</v>
       </c>
       <c r="I61">
@@ -7622,8 +10734,12 @@
       <c r="M61" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -7645,7 +10761,7 @@
       <c r="G62" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="42">
         <v>43567</v>
       </c>
       <c r="I62">
@@ -7663,8 +10779,12 @@
       <c r="M62" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>378</v>
       </c>
@@ -7686,7 +10806,7 @@
       <c r="G63" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="42">
         <v>44396</v>
       </c>
       <c r="I63">
@@ -7704,8 +10824,12 @@
       <c r="M63" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>608</v>
       </c>
@@ -7727,7 +10851,7 @@
       <c r="G64" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="42">
         <v>43283</v>
       </c>
       <c r="I64">
@@ -7745,8 +10869,12 @@
       <c r="M64" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>425</v>
       </c>
@@ -7768,7 +10896,7 @@
       <c r="G65" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="42">
         <v>43440</v>
       </c>
       <c r="I65">
@@ -7786,8 +10914,12 @@
       <c r="M65" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>565</v>
       </c>
@@ -7809,7 +10941,7 @@
       <c r="G66" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="42">
         <v>44454</v>
       </c>
       <c r="I66">
@@ -7827,8 +10959,12 @@
       <c r="M66" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <f t="shared" ref="N66:N129" si="1">MONTH(H66)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>640</v>
       </c>
@@ -7850,7 +10986,7 @@
       <c r="G67" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="42">
         <v>43164</v>
       </c>
       <c r="I67">
@@ -7868,8 +11004,12 @@
       <c r="M67" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>515</v>
       </c>
@@ -7891,7 +11031,7 @@
       <c r="G68" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="42">
         <v>44510</v>
       </c>
       <c r="I68">
@@ -7909,8 +11049,12 @@
       <c r="M68" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>559</v>
       </c>
@@ -7932,7 +11076,7 @@
       <c r="G69" t="s">
         <v>42</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="42">
         <v>43430</v>
       </c>
       <c r="I69">
@@ -7950,8 +11094,12 @@
       <c r="M69" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -7973,7 +11121,7 @@
       <c r="G70" t="s">
         <v>42</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="42">
         <v>44431</v>
       </c>
       <c r="I70">
@@ -7991,8 +11139,12 @@
       <c r="M70" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>556</v>
       </c>
@@ -8014,7 +11166,7 @@
       <c r="G71" t="s">
         <v>42</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="42">
         <v>44085</v>
       </c>
       <c r="I71">
@@ -8032,8 +11184,12 @@
       <c r="M71" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -8055,7 +11211,7 @@
       <c r="G72" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="42">
         <v>44223</v>
       </c>
       <c r="I72">
@@ -8073,8 +11229,12 @@
       <c r="M72" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>590</v>
       </c>
@@ -8096,7 +11256,7 @@
       <c r="G73" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="42">
         <v>43931</v>
       </c>
       <c r="I73">
@@ -8114,8 +11274,12 @@
       <c r="M73" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>327</v>
       </c>
@@ -8137,7 +11301,7 @@
       <c r="G74" t="s">
         <v>42</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="42">
         <v>43826</v>
       </c>
       <c r="I74">
@@ -8155,8 +11319,12 @@
       <c r="M74" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>327</v>
       </c>
@@ -8178,7 +11346,7 @@
       <c r="G75" t="s">
         <v>42</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="42">
         <v>43826</v>
       </c>
       <c r="I75">
@@ -8196,8 +11364,12 @@
       <c r="M75" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>484</v>
       </c>
@@ -8219,7 +11391,7 @@
       <c r="G76" t="s">
         <v>42</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="42">
         <v>44039</v>
       </c>
       <c r="I76">
@@ -8237,8 +11409,12 @@
       <c r="M76" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>271</v>
       </c>
@@ -8260,7 +11436,7 @@
       <c r="G77" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="42">
         <v>44221</v>
       </c>
       <c r="I77">
@@ -8278,8 +11454,12 @@
       <c r="M77" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>588</v>
       </c>
@@ -8301,7 +11481,7 @@
       <c r="G78" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="42">
         <v>43515</v>
       </c>
       <c r="I78">
@@ -8319,8 +11499,12 @@
       <c r="M78" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>449</v>
       </c>
@@ -8342,7 +11526,7 @@
       <c r="G79" t="s">
         <v>42</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="42">
         <v>43602</v>
       </c>
       <c r="I79">
@@ -8360,8 +11544,12 @@
       <c r="M79" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>701</v>
       </c>
@@ -8383,7 +11571,7 @@
       <c r="G80" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="42">
         <v>43794</v>
       </c>
       <c r="I80">
@@ -8401,8 +11589,12 @@
       <c r="M80" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>174</v>
       </c>
@@ -8424,7 +11616,7 @@
       <c r="G81" t="s">
         <v>42</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="42">
         <v>43206</v>
       </c>
       <c r="I81">
@@ -8442,8 +11634,12 @@
       <c r="M81" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -8465,7 +11661,7 @@
       <c r="G82" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="42">
         <v>43213</v>
       </c>
       <c r="I82">
@@ -8483,8 +11679,12 @@
       <c r="M82" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>339</v>
       </c>
@@ -8506,7 +11706,7 @@
       <c r="G83" t="s">
         <v>42</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="42">
         <v>43258</v>
       </c>
       <c r="I83">
@@ -8524,8 +11724,12 @@
       <c r="M83" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>481</v>
       </c>
@@ -8547,7 +11751,7 @@
       <c r="G84" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="42">
         <v>43740</v>
       </c>
       <c r="I84">
@@ -8565,8 +11769,12 @@
       <c r="M84" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>472</v>
       </c>
@@ -8588,7 +11796,7 @@
       <c r="G85" t="s">
         <v>42</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="42">
         <v>43950</v>
       </c>
       <c r="I85">
@@ -8606,8 +11814,12 @@
       <c r="M85" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>342</v>
       </c>
@@ -8629,7 +11841,7 @@
       <c r="G86" t="s">
         <v>42</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="42">
         <v>43662</v>
       </c>
       <c r="I86">
@@ -8647,8 +11859,12 @@
       <c r="M86" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>434</v>
       </c>
@@ -8670,7 +11886,7 @@
       <c r="G87" t="s">
         <v>42</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="42">
         <v>43669</v>
       </c>
       <c r="I87">
@@ -8688,8 +11904,12 @@
       <c r="M87" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>620</v>
       </c>
@@ -8711,7 +11931,7 @@
       <c r="G88" t="s">
         <v>42</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="42">
         <v>43887</v>
       </c>
       <c r="I88">
@@ -8729,8 +11949,12 @@
       <c r="M88" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>265</v>
       </c>
@@ -8752,7 +11976,7 @@
       <c r="G89" t="s">
         <v>42</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="42">
         <v>44104</v>
       </c>
       <c r="I89">
@@ -8770,8 +11994,12 @@
       <c r="M89" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>617</v>
       </c>
@@ -8793,7 +12021,7 @@
       <c r="G90" t="s">
         <v>42</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="42">
         <v>43706</v>
       </c>
       <c r="I90">
@@ -8811,8 +12039,12 @@
       <c r="M90" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>226</v>
       </c>
@@ -8834,7 +12066,7 @@
       <c r="G91" t="s">
         <v>42</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="42">
         <v>43164</v>
       </c>
       <c r="I91">
@@ -8852,8 +12084,12 @@
       <c r="M91" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -8875,7 +12111,7 @@
       <c r="G92" t="s">
         <v>42</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="42">
         <v>43136</v>
       </c>
       <c r="I92">
@@ -8893,8 +12129,12 @@
       <c r="M92" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>312</v>
       </c>
@@ -8916,7 +12156,7 @@
       <c r="G93" t="s">
         <v>42</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="42">
         <v>43839</v>
       </c>
       <c r="I93">
@@ -8934,8 +12174,12 @@
       <c r="M93" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>399</v>
       </c>
@@ -8957,7 +12201,7 @@
       <c r="G94" t="s">
         <v>42</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="42">
         <v>43220</v>
       </c>
       <c r="I94">
@@ -8975,8 +12219,12 @@
       <c r="M94" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>512</v>
       </c>
@@ -8998,7 +12246,7 @@
       <c r="G95" t="s">
         <v>42</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="42">
         <v>43332</v>
       </c>
       <c r="I95">
@@ -9016,8 +12264,12 @@
       <c r="M95" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -9039,7 +12291,7 @@
       <c r="G96" t="s">
         <v>42</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H96" s="42">
         <v>43707</v>
       </c>
       <c r="I96">
@@ -9057,8 +12309,12 @@
       <c r="M96" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -9080,7 +12336,7 @@
       <c r="G97" t="s">
         <v>42</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H97" s="42">
         <v>44098</v>
       </c>
       <c r="I97">
@@ -9098,8 +12354,12 @@
       <c r="M97" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>596</v>
       </c>
@@ -9121,7 +12381,7 @@
       <c r="G98" t="s">
         <v>42</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H98" s="42">
         <v>44116</v>
       </c>
       <c r="I98">
@@ -9139,8 +12399,12 @@
       <c r="M98" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>596</v>
       </c>
@@ -9162,7 +12426,7 @@
       <c r="G99" t="s">
         <v>42</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="42">
         <v>44116</v>
       </c>
       <c r="I99">
@@ -9180,8 +12444,12 @@
       <c r="M99" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>89</v>
       </c>
@@ -9203,7 +12471,7 @@
       <c r="G100" t="s">
         <v>42</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="42">
         <v>44501</v>
       </c>
       <c r="I100">
@@ -9221,8 +12489,12 @@
       <c r="M100" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>716</v>
       </c>
@@ -9244,7 +12516,7 @@
       <c r="G101" t="s">
         <v>42</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="42">
         <v>44285</v>
       </c>
       <c r="I101">
@@ -9262,8 +12534,12 @@
       <c r="M101" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>686</v>
       </c>
@@ -9285,7 +12561,7 @@
       <c r="G102" t="s">
         <v>42</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="42">
         <v>43700</v>
       </c>
       <c r="I102">
@@ -9303,8 +12579,12 @@
       <c r="M102" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>683</v>
       </c>
@@ -9326,7 +12606,7 @@
       <c r="G103" t="s">
         <v>42</v>
       </c>
-      <c r="H103" s="10">
+      <c r="H103" s="42">
         <v>43846</v>
       </c>
       <c r="I103">
@@ -9344,8 +12624,12 @@
       <c r="M103" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -9367,7 +12651,7 @@
       <c r="G104" t="s">
         <v>42</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="42">
         <v>43146</v>
       </c>
       <c r="I104">
@@ -9385,8 +12669,12 @@
       <c r="M104" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>707</v>
       </c>
@@ -9408,7 +12696,7 @@
       <c r="G105" t="s">
         <v>42</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="42">
         <v>44137</v>
       </c>
       <c r="I105">
@@ -9426,8 +12714,12 @@
       <c r="M105" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -9449,7 +12741,7 @@
       <c r="G106" t="s">
         <v>42</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="42">
         <v>43360</v>
       </c>
       <c r="I106">
@@ -9467,8 +12759,12 @@
       <c r="M106" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -9490,7 +12786,7 @@
       <c r="G107" t="s">
         <v>42</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="42">
         <v>43360</v>
       </c>
       <c r="I107">
@@ -9508,8 +12804,12 @@
       <c r="M107" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>203</v>
       </c>
@@ -9531,7 +12831,7 @@
       <c r="G108" t="s">
         <v>42</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="42">
         <v>43787</v>
       </c>
       <c r="I108">
@@ -9549,8 +12849,12 @@
       <c r="M108" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>466</v>
       </c>
@@ -9572,7 +12876,7 @@
       <c r="G109" t="s">
         <v>42</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="42">
         <v>44167</v>
       </c>
       <c r="I109">
@@ -9590,8 +12894,12 @@
       <c r="M109" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>478</v>
       </c>
@@ -9613,7 +12921,7 @@
       <c r="G110" t="s">
         <v>42</v>
       </c>
-      <c r="H110" s="10">
+      <c r="H110" s="42">
         <v>44053</v>
       </c>
       <c r="I110">
@@ -9631,8 +12939,12 @@
       <c r="M110" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>478</v>
       </c>
@@ -9654,7 +12966,7 @@
       <c r="G111" t="s">
         <v>42</v>
       </c>
-      <c r="H111" s="10">
+      <c r="H111" s="42">
         <v>44053</v>
       </c>
       <c r="I111">
@@ -9672,8 +12984,12 @@
       <c r="M111" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>532</v>
       </c>
@@ -9695,7 +13011,7 @@
       <c r="G112" t="s">
         <v>42</v>
       </c>
-      <c r="H112" s="10">
+      <c r="H112" s="42">
         <v>43272</v>
       </c>
       <c r="I112">
@@ -9713,8 +13029,12 @@
       <c r="M112" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>727</v>
       </c>
@@ -9736,7 +13056,7 @@
       <c r="G113" t="s">
         <v>42</v>
       </c>
-      <c r="H113" s="10">
+      <c r="H113" s="42">
         <v>43633</v>
       </c>
       <c r="I113">
@@ -9754,8 +13074,12 @@
       <c r="M113" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>536</v>
       </c>
@@ -9777,7 +13101,7 @@
       <c r="G114" t="s">
         <v>42</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="42">
         <v>43409</v>
       </c>
       <c r="I114">
@@ -9795,8 +13119,12 @@
       <c r="M114" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>599</v>
       </c>
@@ -9818,7 +13146,7 @@
       <c r="G115" t="s">
         <v>42</v>
       </c>
-      <c r="H115" s="10">
+      <c r="H115" s="42">
         <v>43599</v>
       </c>
       <c r="I115">
@@ -9836,8 +13164,12 @@
       <c r="M115" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>156</v>
       </c>
@@ -9859,7 +13191,7 @@
       <c r="G116" t="s">
         <v>42</v>
       </c>
-      <c r="H116" s="10">
+      <c r="H116" s="42">
         <v>43465</v>
       </c>
       <c r="I116">
@@ -9877,8 +13209,12 @@
       <c r="M116" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>375</v>
       </c>
@@ -9900,7 +13236,7 @@
       <c r="G117" t="s">
         <v>42</v>
       </c>
-      <c r="H117" s="10">
+      <c r="H117" s="42">
         <v>43899</v>
       </c>
       <c r="I117">
@@ -9918,8 +13254,12 @@
       <c r="M117" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>351</v>
       </c>
@@ -9941,7 +13281,7 @@
       <c r="G118" t="s">
         <v>42</v>
       </c>
-      <c r="H118" s="10">
+      <c r="H118" s="42">
         <v>43920</v>
       </c>
       <c r="I118">
@@ -9959,8 +13299,12 @@
       <c r="M118" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -9982,7 +13326,7 @@
       <c r="G119" t="s">
         <v>42</v>
       </c>
-      <c r="H119" s="10">
+      <c r="H119" s="42">
         <v>43217</v>
       </c>
       <c r="I119">
@@ -10000,8 +13344,12 @@
       <c r="M119" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>217</v>
       </c>
@@ -10023,7 +13371,7 @@
       <c r="G120" t="s">
         <v>42</v>
       </c>
-      <c r="H120" s="10">
+      <c r="H120" s="42">
         <v>43636</v>
       </c>
       <c r="I120">
@@ -10041,8 +13389,12 @@
       <c r="M120" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>387</v>
       </c>
@@ -10064,7 +13416,7 @@
       <c r="G121" t="s">
         <v>42</v>
       </c>
-      <c r="H121" s="10">
+      <c r="H121" s="42">
         <v>43493</v>
       </c>
       <c r="I121">
@@ -10082,8 +13434,12 @@
       <c r="M121" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>750</v>
       </c>
@@ -10105,7 +13461,7 @@
       <c r="G122" t="s">
         <v>42</v>
       </c>
-      <c r="H122" s="10">
+      <c r="H122" s="42">
         <v>44383</v>
       </c>
       <c r="I122">
@@ -10123,8 +13479,12 @@
       <c r="M122" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>623</v>
       </c>
@@ -10146,7 +13506,7 @@
       <c r="G123" t="s">
         <v>42</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="42">
         <v>43458</v>
       </c>
       <c r="I123">
@@ -10164,8 +13524,12 @@
       <c r="M123" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>623</v>
       </c>
@@ -10187,7 +13551,7 @@
       <c r="G124" t="s">
         <v>42</v>
       </c>
-      <c r="H124" s="10">
+      <c r="H124" s="42">
         <v>43458</v>
       </c>
       <c r="I124">
@@ -10205,8 +13569,12 @@
       <c r="M124" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -10228,7 +13596,7 @@
       <c r="G125" t="s">
         <v>42</v>
       </c>
-      <c r="H125" s="10">
+      <c r="H125" s="42">
         <v>44172</v>
       </c>
       <c r="I125">
@@ -10246,8 +13614,12 @@
       <c r="M125" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>372</v>
       </c>
@@ -10269,7 +13641,7 @@
       <c r="G126" t="s">
         <v>42</v>
       </c>
-      <c r="H126" s="10">
+      <c r="H126" s="42">
         <v>44382</v>
       </c>
       <c r="I126">
@@ -10287,8 +13659,12 @@
       <c r="M126" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>411</v>
       </c>
@@ -10310,7 +13686,7 @@
       <c r="G127" t="s">
         <v>42</v>
       </c>
-      <c r="H127" s="10">
+      <c r="H127" s="42">
         <v>43794</v>
       </c>
       <c r="I127">
@@ -10328,8 +13704,12 @@
       <c r="M127" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -10351,7 +13731,7 @@
       <c r="G128" t="s">
         <v>42</v>
       </c>
-      <c r="H128" s="10">
+      <c r="H128" s="42">
         <v>44239</v>
       </c>
       <c r="I128">
@@ -10369,8 +13749,12 @@
       <c r="M128" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>245</v>
       </c>
@@ -10392,7 +13776,7 @@
       <c r="G129" t="s">
         <v>42</v>
       </c>
-      <c r="H129" s="10">
+      <c r="H129" s="42">
         <v>43466</v>
       </c>
       <c r="I129">
@@ -10410,8 +13794,12 @@
       <c r="M129" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>550</v>
       </c>
@@ -10433,7 +13821,7 @@
       <c r="G130" t="s">
         <v>42</v>
       </c>
-      <c r="H130" s="10">
+      <c r="H130" s="42">
         <v>43570</v>
       </c>
       <c r="I130">
@@ -10451,8 +13839,12 @@
       <c r="M130" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <f t="shared" ref="N130:N193" si="2">MONTH(H130)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>695</v>
       </c>
@@ -10474,7 +13866,7 @@
       <c r="G131" t="s">
         <v>42</v>
       </c>
-      <c r="H131" s="10">
+      <c r="H131" s="42">
         <v>43972</v>
       </c>
       <c r="I131">
@@ -10492,8 +13884,12 @@
       <c r="M131" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>695</v>
       </c>
@@ -10515,7 +13911,7 @@
       <c r="G132" t="s">
         <v>42</v>
       </c>
-      <c r="H132" s="10">
+      <c r="H132" s="42">
         <v>43972</v>
       </c>
       <c r="I132">
@@ -10533,8 +13929,12 @@
       <c r="M132" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>183</v>
       </c>
@@ -10556,7 +13956,7 @@
       <c r="G133" t="s">
         <v>42</v>
       </c>
-      <c r="H133" s="10">
+      <c r="H133" s="42">
         <v>43837</v>
       </c>
       <c r="I133">
@@ -10574,8 +13974,12 @@
       <c r="M133" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>535</v>
       </c>
@@ -10597,7 +14001,7 @@
       <c r="G134" t="s">
         <v>42</v>
       </c>
-      <c r="H134" s="10">
+      <c r="H134" s="42">
         <v>43612</v>
       </c>
       <c r="I134">
@@ -10615,8 +14019,12 @@
       <c r="M134" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>553</v>
       </c>
@@ -10638,7 +14046,7 @@
       <c r="G135" t="s">
         <v>42</v>
       </c>
-      <c r="H135" s="10">
+      <c r="H135" s="42">
         <v>43280</v>
       </c>
       <c r="I135">
@@ -10656,8 +14064,12 @@
       <c r="M135" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>115</v>
       </c>
@@ -10679,7 +14091,7 @@
       <c r="G136" t="s">
         <v>42</v>
       </c>
-      <c r="H136" s="10">
+      <c r="H136" s="42">
         <v>44235</v>
       </c>
       <c r="I136">
@@ -10697,8 +14109,12 @@
       <c r="M136" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>405</v>
       </c>
@@ -10720,7 +14136,7 @@
       <c r="G137" t="s">
         <v>42</v>
       </c>
-      <c r="H137" s="10">
+      <c r="H137" s="42">
         <v>43822</v>
       </c>
       <c r="I137">
@@ -10738,8 +14154,12 @@
       <c r="M137" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>662</v>
       </c>
@@ -10761,7 +14181,7 @@
       <c r="G138" t="s">
         <v>42</v>
       </c>
-      <c r="H138" s="10">
+      <c r="H138" s="42">
         <v>43374</v>
       </c>
       <c r="I138">
@@ -10779,8 +14199,12 @@
       <c r="M138" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>662</v>
       </c>
@@ -10802,7 +14226,7 @@
       <c r="G139" t="s">
         <v>42</v>
       </c>
-      <c r="H139" s="10">
+      <c r="H139" s="42">
         <v>43374</v>
       </c>
       <c r="I139">
@@ -10820,8 +14244,12 @@
       <c r="M139" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>443</v>
       </c>
@@ -10843,7 +14271,7 @@
       <c r="G140" t="s">
         <v>42</v>
       </c>
-      <c r="H140" s="10">
+      <c r="H140" s="42">
         <v>44249</v>
       </c>
       <c r="I140">
@@ -10861,8 +14289,12 @@
       <c r="M140" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>286</v>
       </c>
@@ -10884,7 +14316,7 @@
       <c r="G141" t="s">
         <v>42</v>
       </c>
-      <c r="H141" s="10">
+      <c r="H141" s="42">
         <v>43392</v>
       </c>
       <c r="I141">
@@ -10902,8 +14334,12 @@
       <c r="M141" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>232</v>
       </c>
@@ -10925,7 +14361,7 @@
       <c r="G142" t="s">
         <v>42</v>
       </c>
-      <c r="H142" s="10">
+      <c r="H142" s="42">
         <v>44166</v>
       </c>
       <c r="I142">
@@ -10943,8 +14379,12 @@
       <c r="M142" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>744</v>
       </c>
@@ -10966,7 +14406,7 @@
       <c r="G143" t="s">
         <v>42</v>
       </c>
-      <c r="H143" s="10">
+      <c r="H143" s="42">
         <v>44090</v>
       </c>
       <c r="I143">
@@ -10984,8 +14424,12 @@
       <c r="M143" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>46</v>
       </c>
@@ -11007,7 +14451,7 @@
       <c r="G144" t="s">
         <v>42</v>
       </c>
-      <c r="H144" s="10">
+      <c r="H144" s="42">
         <v>43843</v>
       </c>
       <c r="I144">
@@ -11025,8 +14469,12 @@
       <c r="M144" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>390</v>
       </c>
@@ -11048,7 +14496,7 @@
       <c r="G145" t="s">
         <v>42</v>
       </c>
-      <c r="H145" s="10">
+      <c r="H145" s="42">
         <v>43584</v>
       </c>
       <c r="I145">
@@ -11066,8 +14514,12 @@
       <c r="M145" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -11089,7 +14541,7 @@
       <c r="G146" t="s">
         <v>42</v>
       </c>
-      <c r="H146" s="10">
+      <c r="H146" s="42">
         <v>43458</v>
       </c>
       <c r="I146">
@@ -11107,8 +14559,12 @@
       <c r="M146" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>570</v>
       </c>
@@ -11130,7 +14586,7 @@
       <c r="G147" t="s">
         <v>42</v>
       </c>
-      <c r="H147" s="10">
+      <c r="H147" s="42">
         <v>44195</v>
       </c>
       <c r="I147">
@@ -11148,8 +14604,12 @@
       <c r="M147" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>485</v>
       </c>
@@ -11171,7 +14631,7 @@
       <c r="G148" t="s">
         <v>42</v>
       </c>
-      <c r="H148" s="10">
+      <c r="H148" s="42">
         <v>43472</v>
       </c>
       <c r="I148">
@@ -11189,8 +14649,12 @@
       <c r="M148" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>207</v>
       </c>
@@ -11212,7 +14676,7 @@
       <c r="G149" t="s">
         <v>42</v>
       </c>
-      <c r="H149" s="10">
+      <c r="H149" s="42">
         <v>44305</v>
       </c>
       <c r="I149">
@@ -11230,8 +14694,12 @@
       <c r="M149" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>497</v>
       </c>
@@ -11253,7 +14721,7 @@
       <c r="G150" t="s">
         <v>42</v>
       </c>
-      <c r="H150" s="10">
+      <c r="H150" s="42">
         <v>43397</v>
       </c>
       <c r="I150">
@@ -11271,8 +14739,12 @@
       <c r="M150" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>497</v>
       </c>
@@ -11294,7 +14766,7 @@
       <c r="G151" t="s">
         <v>42</v>
       </c>
-      <c r="H151" s="10">
+      <c r="H151" s="42">
         <v>43397</v>
       </c>
       <c r="I151">
@@ -11312,8 +14784,12 @@
       <c r="M151" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>348</v>
       </c>
@@ -11335,7 +14811,7 @@
       <c r="G152" t="s">
         <v>42</v>
       </c>
-      <c r="H152" s="10">
+      <c r="H152" s="42">
         <v>43390</v>
       </c>
       <c r="I152">
@@ -11353,8 +14829,12 @@
       <c r="M152" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>348</v>
       </c>
@@ -11376,7 +14856,7 @@
       <c r="G153" t="s">
         <v>42</v>
       </c>
-      <c r="H153" s="10">
+      <c r="H153" s="42">
         <v>43390</v>
       </c>
       <c r="I153">
@@ -11394,8 +14874,12 @@
       <c r="M153" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>67</v>
       </c>
@@ -11417,7 +14901,7 @@
       <c r="G154" t="s">
         <v>42</v>
       </c>
-      <c r="H154" s="10">
+      <c r="H154" s="42">
         <v>43494</v>
       </c>
       <c r="I154">
@@ -11435,8 +14919,12 @@
       <c r="M154" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>357</v>
       </c>
@@ -11458,7 +14946,7 @@
       <c r="G155" t="s">
         <v>42</v>
       </c>
-      <c r="H155" s="10">
+      <c r="H155" s="42">
         <v>43297</v>
       </c>
       <c r="I155">
@@ -11476,8 +14964,12 @@
       <c r="M155" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>283</v>
       </c>
@@ -11499,7 +14991,7 @@
       <c r="G156" t="s">
         <v>42</v>
       </c>
-      <c r="H156" s="10">
+      <c r="H156" s="42">
         <v>43508</v>
       </c>
       <c r="I156">
@@ -11517,8 +15009,12 @@
       <c r="M156" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>469</v>
       </c>
@@ -11540,7 +15036,7 @@
       <c r="G157" t="s">
         <v>42</v>
       </c>
-      <c r="H157" s="10">
+      <c r="H157" s="42">
         <v>44277</v>
       </c>
       <c r="I157">
@@ -11558,8 +15054,12 @@
       <c r="M157" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>469</v>
       </c>
@@ -11581,7 +15081,7 @@
       <c r="G158" t="s">
         <v>42</v>
       </c>
-      <c r="H158" s="10">
+      <c r="H158" s="42">
         <v>44277</v>
       </c>
       <c r="I158">
@@ -11599,8 +15099,12 @@
       <c r="M158" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>422</v>
       </c>
@@ -11622,7 +15126,7 @@
       <c r="G159" t="s">
         <v>42</v>
       </c>
-      <c r="H159" s="10">
+      <c r="H159" s="42">
         <v>44119</v>
       </c>
       <c r="I159">
@@ -11640,8 +15144,12 @@
       <c r="M159" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>268</v>
       </c>
@@ -11663,7 +15171,7 @@
       <c r="G160" t="s">
         <v>42</v>
       </c>
-      <c r="H160" s="10">
+      <c r="H160" s="42">
         <v>44062</v>
       </c>
       <c r="I160">
@@ -11681,8 +15189,12 @@
       <c r="M160" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>494</v>
       </c>
@@ -11704,7 +15216,7 @@
       <c r="G161" t="s">
         <v>42</v>
       </c>
-      <c r="H161" s="10">
+      <c r="H161" s="42">
         <v>43430</v>
       </c>
       <c r="I161">
@@ -11722,8 +15234,12 @@
       <c r="M161" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>63</v>
       </c>
@@ -11745,7 +15261,7 @@
       <c r="G162" t="s">
         <v>42</v>
       </c>
-      <c r="H162" s="10">
+      <c r="H162" s="42">
         <v>44194</v>
       </c>
       <c r="I162">
@@ -11763,8 +15279,12 @@
       <c r="M162" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>529</v>
       </c>
@@ -11786,7 +15306,7 @@
       <c r="G163" t="s">
         <v>42</v>
       </c>
-      <c r="H163" s="10">
+      <c r="H163" s="42">
         <v>43406</v>
       </c>
       <c r="I163">
@@ -11804,8 +15324,12 @@
       <c r="M163" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>529</v>
       </c>
@@ -11827,7 +15351,7 @@
       <c r="G164" t="s">
         <v>42</v>
       </c>
-      <c r="H164" s="10">
+      <c r="H164" s="42">
         <v>43406</v>
       </c>
       <c r="I164">
@@ -11845,8 +15369,12 @@
       <c r="M164" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>446</v>
       </c>
@@ -11868,7 +15396,7 @@
       <c r="G165" t="s">
         <v>42</v>
       </c>
-      <c r="H165" s="10">
+      <c r="H165" s="42">
         <v>43340</v>
       </c>
       <c r="I165">
@@ -11886,8 +15414,12 @@
       <c r="M165" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>360</v>
       </c>
@@ -11909,7 +15441,7 @@
       <c r="G166" t="s">
         <v>42</v>
       </c>
-      <c r="H166" s="10">
+      <c r="H166" s="42">
         <v>43514</v>
       </c>
       <c r="I166">
@@ -11927,8 +15459,12 @@
       <c r="M166" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>360</v>
       </c>
@@ -11950,7 +15486,7 @@
       <c r="G167" t="s">
         <v>42</v>
       </c>
-      <c r="H167" s="10">
+      <c r="H167" s="42">
         <v>43514</v>
       </c>
       <c r="I167">
@@ -11968,8 +15504,12 @@
       <c r="M167" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -11991,7 +15531,7 @@
       <c r="G168" t="s">
         <v>42</v>
       </c>
-      <c r="H168" s="10">
+      <c r="H168" s="42">
         <v>44193</v>
       </c>
       <c r="I168">
@@ -12009,8 +15549,12 @@
       <c r="M168" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>186</v>
       </c>
@@ -12032,7 +15576,7 @@
       <c r="G169" t="s">
         <v>42</v>
       </c>
-      <c r="H169" s="10">
+      <c r="H169" s="42">
         <v>44193</v>
       </c>
       <c r="I169">
@@ -12050,8 +15594,12 @@
       <c r="M169" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>295</v>
       </c>
@@ -12073,7 +15621,7 @@
       <c r="G170" t="s">
         <v>42</v>
       </c>
-      <c r="H170" s="10">
+      <c r="H170" s="42">
         <v>43643</v>
       </c>
       <c r="I170">
@@ -12091,8 +15639,12 @@
       <c r="M170" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -12114,7 +15666,7 @@
       <c r="G171" t="s">
         <v>42</v>
       </c>
-      <c r="H171" s="10">
+      <c r="H171" s="42">
         <v>43951</v>
       </c>
       <c r="I171">
@@ -12132,8 +15684,12 @@
       <c r="M171" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>646</v>
       </c>
@@ -12155,7 +15711,7 @@
       <c r="G172" t="s">
         <v>42</v>
       </c>
-      <c r="H172" s="10">
+      <c r="H172" s="42">
         <v>43293</v>
       </c>
       <c r="I172">
@@ -12173,8 +15729,12 @@
       <c r="M172" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>70</v>
       </c>
@@ -12196,7 +15756,7 @@
       <c r="G173" t="s">
         <v>42</v>
       </c>
-      <c r="H173" s="10">
+      <c r="H173" s="42">
         <v>43682</v>
       </c>
       <c r="I173">
@@ -12214,8 +15774,12 @@
       <c r="M173" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>419</v>
       </c>
@@ -12237,7 +15801,7 @@
       <c r="G174" t="s">
         <v>42</v>
       </c>
-      <c r="H174" s="10">
+      <c r="H174" s="42">
         <v>44159</v>
       </c>
       <c r="I174">
@@ -12255,8 +15819,12 @@
       <c r="M174" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>704</v>
       </c>
@@ -12278,7 +15846,7 @@
       <c r="G175" t="s">
         <v>42</v>
       </c>
-      <c r="H175" s="10">
+      <c r="H175" s="42">
         <v>44148</v>
       </c>
       <c r="I175">
@@ -12296,8 +15864,12 @@
       <c r="M175" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>223</v>
       </c>
@@ -12319,7 +15891,7 @@
       <c r="G176" t="s">
         <v>42</v>
       </c>
-      <c r="H176" s="10">
+      <c r="H176" s="42">
         <v>43272</v>
       </c>
       <c r="I176">
@@ -12337,8 +15909,12 @@
       <c r="M176" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -12360,7 +15936,7 @@
       <c r="G177" t="s">
         <v>42</v>
       </c>
-      <c r="H177" s="10">
+      <c r="H177" s="42">
         <v>44434</v>
       </c>
       <c r="I177">
@@ -12378,8 +15954,12 @@
       <c r="M177" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>159</v>
       </c>
@@ -12401,7 +15981,7 @@
       <c r="G178" t="s">
         <v>42</v>
       </c>
-      <c r="H178" s="10">
+      <c r="H178" s="42">
         <v>43794</v>
       </c>
       <c r="I178">
@@ -12419,8 +15999,12 @@
       <c r="M178" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>408</v>
       </c>
@@ -12442,7 +16026,7 @@
       <c r="G179" t="s">
         <v>42</v>
       </c>
-      <c r="H179" s="10">
+      <c r="H179" s="42">
         <v>43346</v>
       </c>
       <c r="I179">
@@ -12460,8 +16044,12 @@
       <c r="M179" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>631</v>
       </c>
@@ -12483,7 +16071,7 @@
       <c r="G180" t="s">
         <v>42</v>
       </c>
-      <c r="H180" s="10">
+      <c r="H180" s="42">
         <v>43430</v>
       </c>
       <c r="I180">
@@ -12501,8 +16089,12 @@
       <c r="M180" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>665</v>
       </c>
@@ -12524,7 +16116,7 @@
       <c r="G181" t="s">
         <v>42</v>
       </c>
-      <c r="H181" s="10">
+      <c r="H181" s="42">
         <v>43171</v>
       </c>
       <c r="I181">
@@ -12542,8 +16134,12 @@
       <c r="M181" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>235</v>
       </c>
@@ -12565,7 +16161,7 @@
       <c r="G182" t="s">
         <v>42</v>
       </c>
-      <c r="H182" s="10">
+      <c r="H182" s="42">
         <v>44365</v>
       </c>
       <c r="I182">
@@ -12583,8 +16179,12 @@
       <c r="M182" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>652</v>
       </c>
@@ -12606,7 +16206,7 @@
       <c r="G183" t="s">
         <v>42</v>
       </c>
-      <c r="H183" s="10">
+      <c r="H183" s="42">
         <v>43931</v>
       </c>
       <c r="I183">
@@ -12624,8 +16224,12 @@
       <c r="M183" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>440</v>
       </c>
@@ -12647,7 +16251,7 @@
       <c r="G184" t="s">
         <v>42</v>
       </c>
-      <c r="H184" s="10">
+      <c r="H184" s="42">
         <v>43452</v>
       </c>
       <c r="I184">
@@ -12665,8 +16269,12 @@
       <c r="M184" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>440</v>
       </c>
@@ -12688,7 +16296,7 @@
       <c r="G185" t="s">
         <v>42</v>
       </c>
-      <c r="H185" s="10">
+      <c r="H185" s="42">
         <v>43452</v>
       </c>
       <c r="I185">
@@ -12706,8 +16314,12 @@
       <c r="M185" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>713</v>
       </c>
@@ -12729,7 +16341,7 @@
       <c r="G186" t="s">
         <v>42</v>
       </c>
-      <c r="H186" s="10">
+      <c r="H186" s="42">
         <v>43717</v>
       </c>
       <c r="I186">
@@ -12747,8 +16359,12 @@
       <c r="M186" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>133</v>
       </c>
@@ -12770,7 +16386,7 @@
       <c r="G187" t="s">
         <v>42</v>
       </c>
-      <c r="H187" s="10">
+      <c r="H187" s="42">
         <v>43654</v>
       </c>
       <c r="I187">
@@ -12788,8 +16404,12 @@
       <c r="M187" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>741</v>
       </c>
@@ -12811,7 +16431,7 @@
       <c r="G188" t="s">
         <v>42</v>
       </c>
-      <c r="H188" s="10">
+      <c r="H188" s="42">
         <v>43171</v>
       </c>
       <c r="I188">
@@ -12829,8 +16449,12 @@
       <c r="M188" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>475</v>
       </c>
@@ -12852,7 +16476,7 @@
       <c r="G189" t="s">
         <v>42</v>
       </c>
-      <c r="H189" s="10">
+      <c r="H189" s="42">
         <v>43572</v>
       </c>
       <c r="I189">
@@ -12870,8 +16494,12 @@
       <c r="M189" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>605</v>
       </c>
@@ -12893,7 +16521,7 @@
       <c r="G190" t="s">
         <v>42</v>
       </c>
-      <c r="H190" s="10">
+      <c r="H190" s="42">
         <v>43305</v>
       </c>
       <c r="I190">
@@ -12911,8 +16539,12 @@
       <c r="M190" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>506</v>
       </c>
@@ -12934,7 +16566,7 @@
       <c r="G191" t="s">
         <v>42</v>
       </c>
-      <c r="H191" s="10">
+      <c r="H191" s="42">
         <v>43192</v>
       </c>
       <c r="I191">
@@ -12952,8 +16584,12 @@
       <c r="M191" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>330</v>
       </c>
@@ -12975,7 +16611,7 @@
       <c r="G192" t="s">
         <v>42</v>
       </c>
-      <c r="H192" s="10">
+      <c r="H192" s="42">
         <v>44421</v>
       </c>
       <c r="I192">
@@ -12993,8 +16629,12 @@
       <c r="M192" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>248</v>
       </c>
@@ -13016,7 +16656,7 @@
       <c r="G193" t="s">
         <v>42</v>
       </c>
-      <c r="H193" s="10">
+      <c r="H193" s="42">
         <v>43763</v>
       </c>
       <c r="I193">
@@ -13034,8 +16674,12 @@
       <c r="M193" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>656</v>
       </c>
@@ -13057,7 +16701,7 @@
       <c r="G194" t="s">
         <v>42</v>
       </c>
-      <c r="H194" s="10">
+      <c r="H194" s="42">
         <v>43808</v>
       </c>
       <c r="I194">
@@ -13075,8 +16719,12 @@
       <c r="M194" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <f t="shared" ref="N194:N261" si="3">MONTH(H194)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>656</v>
       </c>
@@ -13098,7 +16746,7 @@
       <c r="G195" t="s">
         <v>42</v>
       </c>
-      <c r="H195" s="10">
+      <c r="H195" s="42">
         <v>43808</v>
       </c>
       <c r="I195">
@@ -13116,8 +16764,12 @@
       <c r="M195" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>611</v>
       </c>
@@ -13139,7 +16791,7 @@
       <c r="G196" t="s">
         <v>42</v>
       </c>
-      <c r="H196" s="10">
+      <c r="H196" s="42">
         <v>44110</v>
       </c>
       <c r="I196">
@@ -13157,8 +16809,12 @@
       <c r="M196" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>579</v>
       </c>
@@ -13180,7 +16836,7 @@
       <c r="G197" t="s">
         <v>42</v>
       </c>
-      <c r="H197" s="10">
+      <c r="H197" s="42">
         <v>43180</v>
       </c>
       <c r="I197">
@@ -13198,8 +16854,12 @@
       <c r="M197" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>82</v>
       </c>
@@ -13221,7 +16881,7 @@
       <c r="G198" t="s">
         <v>42</v>
       </c>
-      <c r="H198" s="10">
+      <c r="H198" s="42">
         <v>44288</v>
       </c>
       <c r="I198">
@@ -13239,8 +16899,12 @@
       <c r="M198" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>428</v>
       </c>
@@ -13262,7 +16926,7 @@
       <c r="G199" t="s">
         <v>42</v>
       </c>
-      <c r="H199" s="10">
+      <c r="H199" s="42">
         <v>43857</v>
       </c>
       <c r="I199">
@@ -13280,8 +16944,12 @@
       <c r="M199" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -13303,7 +16971,7 @@
       <c r="G200" t="s">
         <v>42</v>
       </c>
-      <c r="H200" s="10">
+      <c r="H200" s="42">
         <v>43521</v>
       </c>
       <c r="I200">
@@ -13321,8 +16989,12 @@
       <c r="M200" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>710</v>
       </c>
@@ -13344,7 +17016,7 @@
       <c r="G201" t="s">
         <v>42</v>
       </c>
-      <c r="H201" s="10">
+      <c r="H201" s="42">
         <v>43573</v>
       </c>
       <c r="I201">
@@ -13362,8 +17034,12 @@
       <c r="M201" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>333</v>
       </c>
@@ -13385,7 +17061,7 @@
       <c r="G202" t="s">
         <v>42</v>
       </c>
-      <c r="H202" s="10">
+      <c r="H202" s="42">
         <v>43665</v>
       </c>
       <c r="I202">
@@ -13403,8 +17079,12 @@
       <c r="M202" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>649</v>
       </c>
@@ -13426,7 +17106,7 @@
       <c r="G203" t="s">
         <v>42</v>
       </c>
-      <c r="H203" s="10">
+      <c r="H203" s="42">
         <v>44237</v>
       </c>
       <c r="I203">
@@ -13444,8 +17124,12 @@
       <c r="M203" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>324</v>
       </c>
@@ -13467,7 +17151,7 @@
       <c r="G204" t="s">
         <v>42</v>
       </c>
-      <c r="H204" s="10">
+      <c r="H204" s="42">
         <v>44221</v>
       </c>
       <c r="I204">
@@ -13485,8 +17169,12 @@
       <c r="M204" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>122</v>
       </c>
@@ -13508,7 +17196,7 @@
       <c r="G205" t="s">
         <v>42</v>
       </c>
-      <c r="H205" s="10">
+      <c r="H205" s="42">
         <v>43418</v>
       </c>
       <c r="I205">
@@ -13526,8 +17214,12 @@
       <c r="M205" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>85</v>
       </c>
@@ -13549,7 +17241,7 @@
       <c r="G206" t="s">
         <v>42</v>
       </c>
-      <c r="H206" s="10">
+      <c r="H206" s="42">
         <v>44285</v>
       </c>
       <c r="I206">
@@ -13567,8 +17259,12 @@
       <c r="M206" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>277</v>
       </c>
@@ -13590,7 +17286,7 @@
       <c r="G207" t="s">
         <v>81</v>
       </c>
-      <c r="H207" s="10">
+      <c r="H207" s="42">
         <v>43550</v>
       </c>
       <c r="I207">
@@ -13608,8 +17304,12 @@
       <c r="M207" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>582</v>
       </c>
@@ -13631,7 +17331,7 @@
       <c r="G208" t="s">
         <v>81</v>
       </c>
-      <c r="H208" s="10">
+      <c r="H208" s="42">
         <v>44384</v>
       </c>
       <c r="I208">
@@ -13649,8 +17349,12 @@
       <c r="M208" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>125</v>
       </c>
@@ -13672,7 +17376,7 @@
       <c r="G209" t="s">
         <v>81</v>
       </c>
-      <c r="H209" s="10">
+      <c r="H209" s="42">
         <v>43264</v>
       </c>
       <c r="I209">
@@ -13690,8 +17394,12 @@
       <c r="M209" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>585</v>
       </c>
@@ -13713,7 +17421,7 @@
       <c r="G210" t="s">
         <v>81</v>
       </c>
-      <c r="H210" s="10">
+      <c r="H210" s="42">
         <v>43791</v>
       </c>
       <c r="I210">
@@ -13731,8 +17439,12 @@
       <c r="M210" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>200</v>
       </c>
@@ -13754,7 +17466,7 @@
       <c r="G211" t="s">
         <v>81</v>
       </c>
-      <c r="H211" s="10">
+      <c r="H211" s="42">
         <v>43468</v>
       </c>
       <c r="I211">
@@ -13772,8 +17484,12 @@
       <c r="M211" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>759</v>
       </c>
@@ -13795,7 +17511,7 @@
       <c r="G212" t="s">
         <v>81</v>
       </c>
-      <c r="H212" s="10">
+      <c r="H212" s="42">
         <v>43973</v>
       </c>
       <c r="I212">
@@ -13813,8 +17529,12 @@
       <c r="M212" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>602</v>
       </c>
@@ -13836,7 +17556,7 @@
       <c r="G213" t="s">
         <v>81</v>
       </c>
-      <c r="H213" s="10">
+      <c r="H213" s="42">
         <v>43843</v>
       </c>
       <c r="I213">
@@ -13854,8 +17574,12 @@
       <c r="M213" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>309</v>
       </c>
@@ -13877,7 +17601,7 @@
       <c r="G214" t="s">
         <v>81</v>
       </c>
-      <c r="H214" s="10">
+      <c r="H214" s="42">
         <v>43277</v>
       </c>
       <c r="I214">
@@ -13895,8 +17619,12 @@
       <c r="M214" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>259</v>
       </c>
@@ -13918,7 +17646,7 @@
       <c r="G215" t="s">
         <v>81</v>
       </c>
-      <c r="H215" s="10">
+      <c r="H215" s="42">
         <v>43846</v>
       </c>
       <c r="I215">
@@ -13936,8 +17664,12 @@
       <c r="M215" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>274</v>
       </c>
@@ -13959,7 +17691,7 @@
       <c r="G216" t="s">
         <v>81</v>
       </c>
-      <c r="H216" s="10">
+      <c r="H216" s="42">
         <v>43416</v>
       </c>
       <c r="I216">
@@ -13977,8 +17709,12 @@
       <c r="M216" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>539</v>
       </c>
@@ -14000,7 +17736,7 @@
       <c r="G217" t="s">
         <v>81</v>
       </c>
-      <c r="H217" s="10">
+      <c r="H217" s="42">
         <v>43809</v>
       </c>
       <c r="I217">
@@ -14018,8 +17754,12 @@
       <c r="M217" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>593</v>
       </c>
@@ -14041,7 +17781,7 @@
       <c r="G218" t="s">
         <v>81</v>
       </c>
-      <c r="H218" s="10">
+      <c r="H218" s="42">
         <v>44487</v>
       </c>
       <c r="I218">
@@ -14059,8 +17799,12 @@
       <c r="M218" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -14082,7 +17826,7 @@
       <c r="G219" t="s">
         <v>81</v>
       </c>
-      <c r="H219" s="10">
+      <c r="H219" s="42">
         <v>43494</v>
       </c>
       <c r="I219">
@@ -14100,8 +17844,12 @@
       <c r="M219" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>146</v>
       </c>
@@ -14123,7 +17871,7 @@
       <c r="G220" t="s">
         <v>81</v>
       </c>
-      <c r="H220" s="10">
+      <c r="H220" s="42">
         <v>43780</v>
       </c>
       <c r="I220">
@@ -14141,8 +17889,12 @@
       <c r="M220" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>241</v>
       </c>
@@ -14164,7 +17916,7 @@
       <c r="G221" t="s">
         <v>81</v>
       </c>
-      <c r="H221" s="10">
+      <c r="H221" s="42">
         <v>43943</v>
       </c>
       <c r="I221">
@@ -14182,8 +17934,12 @@
       <c r="M221" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -14205,7 +17961,7 @@
       <c r="G222" t="s">
         <v>81</v>
       </c>
-      <c r="H222" s="10">
+      <c r="H222" s="42">
         <v>43152</v>
       </c>
       <c r="I222">
@@ -14223,8 +17979,12 @@
       <c r="M222" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>298</v>
       </c>
@@ -14246,7 +18006,7 @@
       <c r="G223" t="s">
         <v>81</v>
       </c>
-      <c r="H223" s="10">
+      <c r="H223" s="42">
         <v>44393</v>
       </c>
       <c r="I223">
@@ -14264,8 +18024,12 @@
       <c r="M223" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>298</v>
       </c>
@@ -14287,7 +18051,7 @@
       <c r="G224" t="s">
         <v>81</v>
       </c>
-      <c r="H224" s="10">
+      <c r="H224" s="42">
         <v>44393</v>
       </c>
       <c r="I224">
@@ -14305,8 +18069,12 @@
       <c r="M224" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>674</v>
       </c>
@@ -14328,7 +18096,7 @@
       <c r="G225" t="s">
         <v>81</v>
       </c>
-      <c r="H225" s="10">
+      <c r="H225" s="42">
         <v>43444</v>
       </c>
       <c r="I225">
@@ -14346,8 +18114,12 @@
       <c r="M225" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>522</v>
       </c>
@@ -14369,7 +18141,7 @@
       <c r="G226" t="s">
         <v>81</v>
       </c>
-      <c r="H226" s="10">
+      <c r="H226" s="42">
         <v>43465</v>
       </c>
       <c r="I226">
@@ -14387,8 +18159,12 @@
       <c r="M226" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>518</v>
       </c>
@@ -14410,7 +18186,7 @@
       <c r="G227" t="s">
         <v>81</v>
       </c>
-      <c r="H227" s="10">
+      <c r="H227" s="42">
         <v>44203</v>
       </c>
       <c r="I227">
@@ -14428,8 +18204,12 @@
       <c r="M227" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>518</v>
       </c>
@@ -14451,7 +18231,7 @@
       <c r="G228" t="s">
         <v>81</v>
       </c>
-      <c r="H228" s="10">
+      <c r="H228" s="42">
         <v>44203</v>
       </c>
       <c r="I228">
@@ -14469,8 +18249,12 @@
       <c r="M228" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>177</v>
       </c>
@@ -14492,7 +18276,7 @@
       <c r="G229" t="s">
         <v>81</v>
       </c>
-      <c r="H229" s="10">
+      <c r="H229" s="42">
         <v>43397</v>
       </c>
       <c r="I229">
@@ -14510,8 +18294,12 @@
       <c r="M229" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>730</v>
       </c>
@@ -14533,7 +18321,7 @@
       <c r="G230" t="s">
         <v>81</v>
       </c>
-      <c r="H230" s="10">
+      <c r="H230" s="42">
         <v>43696</v>
       </c>
       <c r="I230">
@@ -14551,8 +18339,12 @@
       <c r="M230" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -14574,7 +18366,7 @@
       <c r="G231" t="s">
         <v>81</v>
       </c>
-      <c r="H231" s="10">
+      <c r="H231" s="42">
         <v>43962</v>
       </c>
       <c r="I231">
@@ -14592,8 +18384,12 @@
       <c r="M231" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -14615,7 +18411,7 @@
       <c r="G232" t="s">
         <v>81</v>
       </c>
-      <c r="H232" s="10">
+      <c r="H232" s="42">
         <v>43962</v>
       </c>
       <c r="I232">
@@ -14633,8 +18429,12 @@
       <c r="M232" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>414</v>
       </c>
@@ -14656,7 +18456,7 @@
       <c r="G233" t="s">
         <v>81</v>
       </c>
-      <c r="H233" s="10">
+      <c r="H233" s="42">
         <v>43823</v>
       </c>
       <c r="I233">
@@ -14674,8 +18474,12 @@
       <c r="M233" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>414</v>
       </c>
@@ -14697,7 +18501,7 @@
       <c r="G234" t="s">
         <v>81</v>
       </c>
-      <c r="H234" s="10">
+      <c r="H234" s="42">
         <v>43823</v>
       </c>
       <c r="I234">
@@ -14715,8 +18519,12 @@
       <c r="M234" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>162</v>
       </c>
@@ -14738,7 +18546,7 @@
       <c r="G235" t="s">
         <v>81</v>
       </c>
-      <c r="H235" s="10">
+      <c r="H235" s="42">
         <v>43642</v>
       </c>
       <c r="I235">
@@ -14756,8 +18564,12 @@
       <c r="M235" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>692</v>
       </c>
@@ -14779,7 +18591,7 @@
       <c r="G236" t="s">
         <v>81</v>
       </c>
-      <c r="H236" s="10">
+      <c r="H236" s="42">
         <v>44357</v>
       </c>
       <c r="I236">
@@ -14797,8 +18609,12 @@
       <c r="M236" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>171</v>
       </c>
@@ -14820,7 +18636,7 @@
       <c r="G237" t="s">
         <v>81</v>
       </c>
-      <c r="H237" s="10">
+      <c r="H237" s="42">
         <v>44175</v>
       </c>
       <c r="I237">
@@ -14838,8 +18654,12 @@
       <c r="M237" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>128</v>
       </c>
@@ -14861,7 +18681,7 @@
       <c r="G238" t="s">
         <v>81</v>
       </c>
-      <c r="H238" s="10">
+      <c r="H238" s="42">
         <v>43416</v>
       </c>
       <c r="I238">
@@ -14879,8 +18699,12 @@
       <c r="M238" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>128</v>
       </c>
@@ -14902,7 +18726,7 @@
       <c r="G239" t="s">
         <v>81</v>
       </c>
-      <c r="H239" s="10">
+      <c r="H239" s="42">
         <v>43416</v>
       </c>
       <c r="I239">
@@ -14920,8 +18744,12 @@
       <c r="M239" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>698</v>
       </c>
@@ -14943,7 +18771,7 @@
       <c r="G240" t="s">
         <v>81</v>
       </c>
-      <c r="H240" s="10">
+      <c r="H240" s="42">
         <v>44358</v>
       </c>
       <c r="I240">
@@ -14961,8 +18789,12 @@
       <c r="M240" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>191</v>
       </c>
@@ -14984,7 +18816,7 @@
       <c r="G241" t="s">
         <v>81</v>
       </c>
-      <c r="H241" s="10">
+      <c r="H241" s="42">
         <v>44078</v>
       </c>
       <c r="I241">
@@ -15002,8 +18834,12 @@
       <c r="M241" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>93</v>
       </c>
@@ -15025,7 +18861,7 @@
       <c r="G242" t="s">
         <v>81</v>
       </c>
-      <c r="H242" s="10">
+      <c r="H242" s="42">
         <v>43241</v>
       </c>
       <c r="I242">
@@ -15043,8 +18879,12 @@
       <c r="M242" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>509</v>
       </c>
@@ -15066,7 +18906,7 @@
       <c r="G243" t="s">
         <v>81</v>
       </c>
-      <c r="H243" s="10">
+      <c r="H243" s="42">
         <v>43468</v>
       </c>
       <c r="I243">
@@ -15084,8 +18924,12 @@
       <c r="M243" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>671</v>
       </c>
@@ -15107,7 +18951,7 @@
       <c r="G244" t="s">
         <v>81</v>
       </c>
-      <c r="H244" s="10">
+      <c r="H244" s="42">
         <v>43234</v>
       </c>
       <c r="I244">
@@ -15125,8 +18969,12 @@
       <c r="M244" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>289</v>
       </c>
@@ -15148,7 +18996,7 @@
       <c r="G245" t="s">
         <v>81</v>
       </c>
-      <c r="H245" s="10">
+      <c r="H245" s="42">
         <v>43346</v>
       </c>
       <c r="I245">
@@ -15166,8 +19014,12 @@
       <c r="M245" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>168</v>
       </c>
@@ -15189,7 +19041,7 @@
       <c r="G246" t="s">
         <v>81</v>
       </c>
-      <c r="H246" s="10">
+      <c r="H246" s="42">
         <v>44473</v>
       </c>
       <c r="I246">
@@ -15207,8 +19059,12 @@
       <c r="M246" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>526</v>
       </c>
@@ -15230,7 +19086,7 @@
       <c r="G247" t="s">
         <v>81</v>
       </c>
-      <c r="H247" s="10">
+      <c r="H247" s="42">
         <v>43497</v>
       </c>
       <c r="I247">
@@ -15248,8 +19104,12 @@
       <c r="M247" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>292</v>
       </c>
@@ -15271,7 +19131,7 @@
       <c r="G248" t="s">
         <v>81</v>
       </c>
-      <c r="H248" s="10">
+      <c r="H248" s="42">
         <v>43725</v>
       </c>
       <c r="I248">
@@ -15289,8 +19149,12 @@
       <c r="M248" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>634</v>
       </c>
@@ -15312,7 +19176,7 @@
       <c r="G249" t="s">
         <v>81</v>
       </c>
-      <c r="H249" s="10">
+      <c r="H249" s="42">
         <v>43665</v>
       </c>
       <c r="I249">
@@ -15330,8 +19194,12 @@
       <c r="M249" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>576</v>
       </c>
@@ -15353,7 +19221,7 @@
       <c r="G250" t="s">
         <v>81</v>
       </c>
-      <c r="H250" s="10">
+      <c r="H250" s="42">
         <v>43776</v>
       </c>
       <c r="I250">
@@ -15371,8 +19239,12 @@
       <c r="M250" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>614</v>
       </c>
@@ -15394,7 +19266,7 @@
       <c r="G251" t="s">
         <v>81</v>
       </c>
-      <c r="H251" s="10">
+      <c r="H251" s="42">
         <v>44473</v>
       </c>
       <c r="I251">
@@ -15412,8 +19284,12 @@
       <c r="M251" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>463</v>
       </c>
@@ -15435,7 +19311,7 @@
       <c r="G252" t="s">
         <v>81</v>
       </c>
-      <c r="H252" s="10">
+      <c r="H252" s="42">
         <v>43474</v>
       </c>
       <c r="I252">
@@ -15453,8 +19329,12 @@
       <c r="M252" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>756</v>
       </c>
@@ -15476,7 +19356,7 @@
       <c r="G253" t="s">
         <v>81</v>
       </c>
-      <c r="H253" s="10">
+      <c r="H253" s="42">
         <v>43291</v>
       </c>
       <c r="I253">
@@ -15494,8 +19374,12 @@
       <c r="M253" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>78</v>
       </c>
@@ -15517,7 +19401,7 @@
       <c r="G254" t="s">
         <v>81</v>
       </c>
-      <c r="H254" s="10">
+      <c r="H254" s="42">
         <v>44105</v>
       </c>
       <c r="I254">
@@ -15535,8 +19419,12 @@
       <c r="M254" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>503</v>
       </c>
@@ -15558,7 +19446,7 @@
       <c r="G255" t="s">
         <v>81</v>
       </c>
-      <c r="H255" s="10">
+      <c r="H255" s="42">
         <v>43733</v>
       </c>
       <c r="I255">
@@ -15576,8 +19464,12 @@
       <c r="M255" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>452</v>
       </c>
@@ -15599,7 +19491,7 @@
       <c r="G256" t="s">
         <v>81</v>
       </c>
-      <c r="H256" s="10">
+      <c r="H256" s="42">
         <v>43916</v>
       </c>
       <c r="I256">
@@ -15617,8 +19509,12 @@
       <c r="M256" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>452</v>
       </c>
@@ -15640,7 +19536,7 @@
       <c r="G257" t="s">
         <v>81</v>
       </c>
-      <c r="H257" s="10">
+      <c r="H257" s="42">
         <v>43916</v>
       </c>
       <c r="I257">
@@ -15658,8 +19554,12 @@
       <c r="M257" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>677</v>
       </c>
@@ -15681,7 +19581,7 @@
       <c r="G258" t="s">
         <v>81</v>
       </c>
-      <c r="H258" s="10">
+      <c r="H258" s="42">
         <v>44228</v>
       </c>
       <c r="I258">
@@ -15699,8 +19599,12 @@
       <c r="M258" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>491</v>
       </c>
@@ -15722,7 +19626,7 @@
       <c r="G259" t="s">
         <v>81</v>
       </c>
-      <c r="H259" s="10">
+      <c r="H259" s="42">
         <v>43402</v>
       </c>
       <c r="I259">
@@ -15740,8 +19644,12 @@
       <c r="M259" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>384</v>
       </c>
@@ -15763,7 +19671,7 @@
       <c r="G260" t="s">
         <v>81</v>
       </c>
-      <c r="H260" s="10">
+      <c r="H260" s="42">
         <v>43754</v>
       </c>
       <c r="I260">
@@ -15781,8 +19689,12 @@
       <c r="M260" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>738</v>
       </c>
@@ -15804,7 +19716,7 @@
       <c r="G261" t="s">
         <v>81</v>
       </c>
-      <c r="H261" s="10">
+      <c r="H261" s="42">
         <v>43129</v>
       </c>
       <c r="I261">
@@ -15821,6 +19733,10 @@
       </c>
       <c r="M261" t="s">
         <v>51</v>
+      </c>
+      <c r="N261">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20586,7 +24502,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F589228-BA26-4231-9263-D726A4AE86F6}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="263" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
@@ -20598,12 +24514,12 @@
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>794</v>
       </c>
@@ -20614,7 +24530,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>25</v>
       </c>
@@ -20623,7 +24539,7 @@
         <v>Edd</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>26</v>
       </c>
@@ -20632,7 +24548,7 @@
         <v>MacKnockiter</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>28</v>
       </c>
@@ -20641,7 +24557,7 @@
         <v>Accounting</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>29</v>
       </c>
@@ -20650,7 +24566,7 @@
         <v>119022.49</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>792</v>
       </c>
@@ -20661,7 +24577,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
         <v>797</v>
       </c>
@@ -20670,7 +24586,7 @@
         <v>PR00113</v>
       </c>
       <c r="G14" t="str" cm="1">
-        <f t="array" ref="G14:S14">_xlfn.XLOOKUP(C12,staff[Last Name],staff[],"Not Found",0)</f>
+        <f t="array" ref="G14:T14">_xlfn.XLOOKUP(C12,staff[Last Name],staff[],"Not Found",0)</f>
         <v>PR00113</v>
       </c>
       <c r="H14" t="str">
@@ -20709,8 +24625,11 @@
       <c r="S14" t="str">
         <v>Full time</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>28</v>
       </c>
@@ -20719,7 +24638,7 @@
         <v>Business Development</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>29</v>
       </c>
@@ -20735,7 +24654,7 @@
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" t="str" cm="1">
-        <f t="array" ref="G19:G31">TRANSPOSE(_xlfn.XLOOKUP(C12,staff[Last Name],staff[],"Not Found",0))</f>
+        <f t="array" ref="G19:G32">TRANSPOSE(_xlfn.XLOOKUP(C12,staff[Last Name],staff[],"Not Found",0))</f>
         <v>PR00113</v>
       </c>
     </row>
@@ -20797,6 +24716,11 @@
     <row r="31" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G31" t="str">
         <v>Full time</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
+++ b/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sp/Desktop/Employee-Data-Insights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254392F-AD0B-5C49-8679-4EEDFF66D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D44661-F650-F54D-9FF9-66A3772B8112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="10" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="820">
   <si>
     <t>Essential Excel Functions &amp; Formulas</t>
   </si>
@@ -2754,7 +2754,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2864,6 +2864,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2955,6 +2958,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39788D91-F5B9-496B-94EF-C3A4602C3B4E}" name="staff" displayName="staff" ref="A1:N261" totalsRowShown="0">
+  <autoFilter ref="A1:N261" xr:uid="{39788D91-F5B9-496B-94EF-C3A4602C3B4E}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{621ED446-8957-40DD-AC6B-306E51CB363A}" name="Emp ID"/>
     <tableColumn id="2" xr3:uid="{06E81D82-C308-43C1-BA8E-E8A50BCBCED3}" name="First Name"/>
@@ -3296,8 +3306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920E98F7-A8B9-4AB9-A435-6FE020DD9D8F}">
   <dimension ref="A1:N270"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4918,10 +4928,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5261174D-7B41-4677-B7AD-2966004EA369}">
-  <dimension ref="B1:D263"/>
+  <dimension ref="B1:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4944,2863 +4954,933 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="str" cm="1">
-        <f t="array" ref="B4:D263">_xlfn._xlws.FILTER(staff[Emp ID]:staff[Last Name],MONTH(staff[Start Date]=3),"Not Found")</f>
-        <v>PR00147</v>
+        <f t="array" ref="B4:D25">_xlfn._xlws.FILTER(staff[Emp ID]:staff[Last Name],MONTH(staff[Start Date])=3,"Not Found")</f>
+        <v>SQ04612</v>
       </c>
       <c r="C4" t="str">
-        <v>Minerva</v>
+        <v>Mick</v>
       </c>
       <c r="D4" t="str">
-        <v>Ricardot</v>
+        <v>Spraberry</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
-        <v>SQ04612</v>
+        <v>PR00746</v>
       </c>
       <c r="C5" t="str">
-        <v>Mick</v>
+        <v>Hogan</v>
       </c>
       <c r="D5" t="str">
-        <v>Spraberry</v>
+        <v>Iles</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
-        <v>PR03886</v>
+        <v>VT03421</v>
       </c>
       <c r="C6" t="str">
-        <v>Edd</v>
+        <v>Alic</v>
       </c>
       <c r="D6" t="str">
-        <v>MacKnockiter</v>
+        <v>Bagg</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
-        <v>SQ00144</v>
+        <v>VT03421</v>
       </c>
       <c r="C7" t="str">
-        <v>Collen</v>
+        <v>Alic</v>
       </c>
       <c r="D7" t="str">
-        <v>Dunbleton</v>
+        <v>Bagg</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
-        <v>SQ02174</v>
+        <v>VT04028</v>
       </c>
       <c r="C8" t="str">
-        <v>Sidoney</v>
+        <v>Michale</v>
       </c>
       <c r="D8" t="str">
-        <v>Yitzhok</v>
+        <v>Rolf</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
-        <v>VT04093</v>
+        <v>VT04028</v>
       </c>
       <c r="C9" t="str">
-        <v>Prasanna</v>
+        <v>Michale</v>
       </c>
       <c r="D9" t="str">
-        <v>Lakshmi</v>
+        <v>Rolf</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
-        <v>VT04093</v>
+        <v>SQ00022</v>
       </c>
       <c r="C10" t="str">
-        <v>Baruna</v>
+        <v>Carlin</v>
       </c>
       <c r="D10" t="str">
-        <v>Ogale</v>
+        <v>Demke</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
-        <v>Scad</v>
+        <v>VT01762</v>
       </c>
       <c r="C11" t="str">
-        <v>Prerana</v>
+        <v>Geena</v>
       </c>
       <c r="D11" t="str">
-        <v>Nishita</v>
+        <v>Raghavanpillai</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
-        <v>SQ02624</v>
+        <v>VT01803</v>
       </c>
       <c r="C12" t="str">
-        <v>Gwenneth</v>
+        <v>Freddy</v>
       </c>
       <c r="D12" t="str">
-        <v>Fealey</v>
+        <v>Linford</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
-        <v>VT02801</v>
+        <v>SQ00105</v>
       </c>
       <c r="C13" t="str">
-        <v>Shellysheldon</v>
+        <v>Sarayu</v>
       </c>
       <c r="D13" t="str">
-        <v>Mahady</v>
+        <v>Ragunathan</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
-        <v>VT02491</v>
+        <v>VT03993</v>
       </c>
       <c r="C14" t="str">
-        <v>Alexis</v>
+        <v>Dulce</v>
       </c>
       <c r="D14" t="str">
-        <v>Gotfrey</v>
+        <v>Colbeck</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
-        <v>TN01281</v>
+        <v>SQ03625</v>
       </c>
       <c r="C15" t="str">
-        <v>Cletus</v>
+        <v>Fidela</v>
       </c>
       <c r="D15" t="str">
-        <v>McGarahan</v>
+        <v>Artis</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
-        <v>PR00746</v>
+        <v>SQ03112</v>
       </c>
       <c r="C16" t="str">
-        <v>Hogan</v>
+        <v>Kantimoy</v>
       </c>
       <c r="D16" t="str">
-        <v>Iles</v>
+        <v>Pritish</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
-        <v>VT03421</v>
+        <v>TN01601</v>
       </c>
       <c r="C17" t="str">
-        <v>Alic</v>
+        <v>Melva</v>
       </c>
       <c r="D17" t="str">
-        <v>Bagg</v>
+        <v>Jickells</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
-        <v>VT03421</v>
+        <v>TN01601</v>
       </c>
       <c r="C18" t="str">
-        <v>Alic</v>
+        <v>Melva</v>
       </c>
       <c r="D18" t="str">
-        <v>Bagg</v>
+        <v>Jickells</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
-        <v>SQ01620</v>
+        <v>VT02417</v>
       </c>
       <c r="C19" t="str">
-        <v>Westbrook</v>
+        <v>Evangelina</v>
       </c>
       <c r="D19" t="str">
-        <v>Brandino</v>
+        <v>Lergan</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
-        <v>VT01893</v>
+        <v>VT04415</v>
       </c>
       <c r="C20" t="str">
-        <v>Lindy</v>
+        <v>Malory</v>
       </c>
       <c r="D20" t="str">
-        <v>Guillet</v>
+        <v>Biles</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
-        <v>VT01893</v>
+        <v>TN04892</v>
       </c>
       <c r="C21" t="str">
-        <v>Lindy</v>
+        <v>Luca</v>
       </c>
       <c r="D21" t="str">
-        <v>Guillet</v>
+        <v>Wolstenholme</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
-        <v>PR01159</v>
+        <v>PR00893</v>
       </c>
       <c r="C22" t="str">
-        <v>Mollie</v>
+        <v>Vasavi</v>
       </c>
       <c r="D22" t="str">
-        <v>Hanway</v>
+        <v>Veeravasarapu</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
-        <v>VT04028</v>
+        <v>SQ01519</v>
       </c>
       <c r="C23" t="str">
-        <v>Michale</v>
+        <v>Caron</v>
       </c>
       <c r="D23" t="str">
-        <v>Rolf</v>
+        <v>Kolakovic</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
-        <v>VT04028</v>
+        <v>TN01256</v>
       </c>
       <c r="C24" t="str">
-        <v>Michale</v>
+        <v>Shattesh</v>
       </c>
       <c r="D24" t="str">
-        <v>Rolf</v>
+        <v>Utpat</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
-        <v>SQ04603</v>
+        <v>TN01256</v>
       </c>
       <c r="C25" t="str">
-        <v>Natalee</v>
+        <v>Sawini</v>
       </c>
       <c r="D25" t="str">
-        <v>Craiker</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="str">
-        <v>SQ00498</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Amery</v>
-      </c>
-      <c r="D26" t="str">
-        <v>Ofer</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="str">
-        <v>VT04681</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Nickolai</v>
-      </c>
-      <c r="D27" t="str">
-        <v>Artin</v>
+        <v>Chandan</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="str">
-        <v>SQ00022</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Carlin</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Demke</v>
+      <c r="B28" s="51" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="str">
-        <v>TN00579</v>
+      <c r="B29" t="str" cm="1">
+        <f t="array" ref="B29:D90">_xlfn._xlws.FILTER(staff[Emp ID]:staff[Last Name],(WEEKDAY(staff[Start Date],2)=1)*(staff[Gender]="Female"),"Not Found")</f>
+        <v>SQ02174</v>
       </c>
       <c r="C29" t="str">
-        <v>Rafaelita</v>
+        <v>Sidoney</v>
       </c>
       <c r="D29" t="str">
-        <v>Blaksland</v>
+        <v>Yitzhok</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
-        <v>SQ03733</v>
+        <v>TN01281</v>
       </c>
       <c r="C30" t="str">
-        <v>Revkah</v>
+        <v>Cletus</v>
       </c>
       <c r="D30" t="str">
-        <v>Antonacci</v>
+        <v>McGarahan</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
-        <v>SQ03116</v>
+        <v>VT04552</v>
       </c>
       <c r="C31" t="str">
-        <v>Syd</v>
+        <v>Theresita</v>
       </c>
       <c r="D31" t="str">
-        <v>Fearn</v>
+        <v>Chasmer</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
-        <v>SQ03476</v>
+        <v>TN04740</v>
       </c>
       <c r="C32" t="str">
-        <v>Ramalingam</v>
+        <v>Tristam</v>
       </c>
       <c r="D32" t="str">
-        <v>Kothapeta</v>
+        <v>Cuming</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
-        <v>TN04058</v>
+        <v>SQ03491</v>
       </c>
       <c r="C33" t="str">
-        <v>Subbarao</v>
+        <v>Freda</v>
       </c>
       <c r="D33" t="str">
-        <v>Malladi</v>
+        <v>Legan</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
-        <v>TN04058</v>
+        <v>TN04246</v>
       </c>
       <c r="C34" t="str">
-        <v>Vasu</v>
+        <v>Shaylyn</v>
       </c>
       <c r="D34" t="str">
-        <v>Nandin</v>
+        <v>Ransbury</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
-        <v>VT04552</v>
+        <v>TN03575</v>
       </c>
       <c r="C35" t="str">
-        <v>Theresita</v>
+        <v>Janina</v>
       </c>
       <c r="D35" t="str">
-        <v>Chasmer</v>
+        <v>Wolverson</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
-        <v>VT04350</v>
+        <v>TN03575</v>
       </c>
       <c r="C36" t="str">
-        <v>Kulbhushan</v>
+        <v>Janina</v>
       </c>
       <c r="D36" t="str">
-        <v>Moorthy</v>
+        <v>Wolverson</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
-        <v>VT04350</v>
+        <v>PR04686</v>
       </c>
       <c r="C37" t="str">
-        <v>Lalit</v>
+        <v>Oona</v>
       </c>
       <c r="D37" t="str">
-        <v>Kothari</v>
+        <v>Donan</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
-        <v>SQ02703</v>
+        <v>PR00007</v>
       </c>
       <c r="C38" t="str">
-        <v>Deepit</v>
+        <v>Torrance</v>
       </c>
       <c r="D38" t="str">
-        <v>Ranjana</v>
+        <v>Collier</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
-        <v>PR04601</v>
+        <v>SQ03626</v>
       </c>
       <c r="C39" t="str">
-        <v>Yedukondalu</v>
+        <v>Krishnakanta</v>
       </c>
       <c r="D39" t="str">
-        <v>Panditula</v>
+        <v>Vellanki</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
-        <v>PR02288</v>
+        <v>VT01803</v>
       </c>
       <c r="C40" t="str">
-        <v>Althea</v>
+        <v>Freddy</v>
       </c>
       <c r="D40" t="str">
-        <v>Bronger</v>
+        <v>Linford</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
-        <v>TN04740</v>
+        <v>TN04175</v>
       </c>
       <c r="C41" t="str">
-        <v>Tristam</v>
+        <v>Hinda</v>
       </c>
       <c r="D41" t="str">
-        <v>Cuming</v>
+        <v>Label</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
-        <v>SQ02035</v>
+        <v>PR04446</v>
       </c>
       <c r="C42" t="str">
-        <v>Anni</v>
+        <v>Sameer</v>
       </c>
       <c r="D42" t="str">
-        <v>Izzard</v>
+        <v>Shashank</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
-        <v>SQ02035</v>
+        <v>VT03701</v>
       </c>
       <c r="C43" t="str">
-        <v>Anni</v>
+        <v>Narois</v>
       </c>
       <c r="D43" t="str">
-        <v>Izzard</v>
+        <v>Motiwala</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
-        <v>PR02208</v>
+        <v>PR03158</v>
       </c>
       <c r="C44" t="str">
-        <v>Gowri</v>
+        <v>Danica</v>
       </c>
       <c r="D44" t="str">
-        <v>Sankar</v>
+        <v>Nayshe</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
-        <v>VT01762</v>
+        <v>SQ00841</v>
       </c>
       <c r="C45" t="str">
-        <v>Geena</v>
+        <v>Bhuvan</v>
       </c>
       <c r="D45" t="str">
-        <v>Raghavanpillai</v>
+        <v>Pals</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
-        <v>SQ03491</v>
+        <v>SQ00105</v>
       </c>
       <c r="C46" t="str">
-        <v>Freda</v>
+        <v>Sarayu</v>
       </c>
       <c r="D46" t="str">
-        <v>Legan</v>
+        <v>Ragunathan</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
-        <v>VT01684</v>
+        <v>SQ04613</v>
       </c>
       <c r="C47" t="str">
-        <v>Audry</v>
+        <v>Sarojini</v>
       </c>
       <c r="D47" t="str">
-        <v>Yu</v>
+        <v>Naueshwara</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
-        <v>SQ03387</v>
+        <v>TN02883</v>
       </c>
       <c r="C48" t="str">
-        <v>Robinia</v>
+        <v>John</v>
       </c>
       <c r="D48" t="str">
-        <v>Scholling</v>
+        <v>Joseph</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
-        <v>SQ04665</v>
+        <v>VT00596</v>
       </c>
       <c r="C49" t="str">
-        <v>Collin</v>
+        <v>Letisha</v>
       </c>
       <c r="D49" t="str">
-        <v>Jagson</v>
+        <v>Carrett</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
-        <v>TN04246</v>
+        <v>VT00596</v>
       </c>
       <c r="C50" t="str">
-        <v>Shaylyn</v>
+        <v>Letisha</v>
       </c>
       <c r="D50" t="str">
-        <v>Ransbury</v>
+        <v>Carrett</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
-        <v>SQ02465</v>
+        <v>PR00916</v>
       </c>
       <c r="C51" t="str">
-        <v>Bernie</v>
+        <v>Inger</v>
       </c>
       <c r="D51" t="str">
-        <v>Gorges</v>
+        <v>Chapelhow</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
-        <v>TN03575</v>
+        <v>PR00113</v>
       </c>
       <c r="C52" t="str">
-        <v>Janina</v>
+        <v>Van</v>
       </c>
       <c r="D52" t="str">
-        <v>Wolverson</v>
+        <v>Tuxwell</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
-        <v>TN03575</v>
+        <v>PR00113</v>
       </c>
       <c r="C53" t="str">
-        <v>Janina</v>
+        <v>Van</v>
       </c>
       <c r="D53" t="str">
-        <v>Wolverson</v>
+        <v>Tuxwell</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
-        <v>TN01340</v>
+        <v>PR04380</v>
       </c>
       <c r="C54" t="str">
-        <v>Granny</v>
+        <v>Van</v>
       </c>
       <c r="D54" t="str">
-        <v>Spencelayh</v>
+        <v>Tuxwell</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
-        <v>TN04428</v>
+        <v>PR02436</v>
       </c>
       <c r="C55" t="str">
-        <v>Tadio</v>
+        <v>Marmaduke</v>
       </c>
       <c r="D55" t="str">
-        <v>Audritt</v>
+        <v>Worssam</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
-        <v>TN04428</v>
+        <v>SQ03625</v>
       </c>
       <c r="C56" t="str">
-        <v>Tadio</v>
+        <v>Fidela</v>
       </c>
       <c r="D56" t="str">
-        <v>Audritt</v>
+        <v>Artis</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
-        <v>TN02377</v>
+        <v>VT01610</v>
       </c>
       <c r="C57" t="str">
-        <v>Anjela</v>
+        <v>Dhruv</v>
       </c>
       <c r="D57" t="str">
-        <v>Spancock</v>
+        <v>Manjunath</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
-        <v>PR04686</v>
+        <v>VT01610</v>
       </c>
       <c r="C58" t="str">
-        <v>Oona</v>
+        <v>Kunja</v>
       </c>
       <c r="D58" t="str">
-        <v>Donan</v>
+        <v>Prashanta</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
-        <v>PR01269</v>
+        <v>PR02113</v>
       </c>
       <c r="C59" t="str">
-        <v>Eleonore</v>
+        <v>Beverie</v>
       </c>
       <c r="D59" t="str">
-        <v>Airdrie</v>
+        <v>Moffet</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
-        <v>TN02674</v>
+        <v>SQ03546</v>
       </c>
       <c r="C60" t="str">
-        <v>Antonetta</v>
+        <v>Amlankusum</v>
       </c>
       <c r="D60" t="str">
-        <v>Coggeshall</v>
+        <v>Rajabhushan</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
-        <v>TN02674</v>
+        <v>TN00182</v>
       </c>
       <c r="C61" t="str">
-        <v>Antonetta</v>
+        <v>Camilla</v>
       </c>
       <c r="D61" t="str">
-        <v>Coggeshall</v>
+        <v>Castle</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
-        <v>VT02319</v>
+        <v>TN04067</v>
       </c>
       <c r="C62" t="str">
-        <v>Tarala</v>
+        <v>Lea</v>
       </c>
       <c r="D62" t="str">
-        <v>Vishaal</v>
+        <v>Chaplin</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
-        <v>PR00007</v>
+        <v>PR01383</v>
       </c>
       <c r="C63" t="str">
-        <v>Torrance</v>
+        <v>Addi</v>
       </c>
       <c r="D63" t="str">
-        <v>Collier</v>
+        <v>Studdeard</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
-        <v>PR02140</v>
+        <v>SQ04960</v>
       </c>
       <c r="C64" t="str">
-        <v>Anjushri</v>
+        <v>Shubhra</v>
       </c>
       <c r="D64" t="str">
-        <v>Chandiramani</v>
+        <v>Potla</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
-        <v>SQ03626</v>
+        <v>VT02374</v>
       </c>
       <c r="C65" t="str">
-        <v>Krishnakanta</v>
+        <v>Delphine</v>
       </c>
       <c r="D65" t="str">
-        <v>Vellanki</v>
+        <v>Jewis</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
-        <v>VT01101</v>
+        <v>VT02374</v>
       </c>
       <c r="C66" t="str">
-        <v>Adela</v>
+        <v>Delphine</v>
       </c>
       <c r="D66" t="str">
-        <v>Dowsett</v>
+        <v>Jewis</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
-        <v>TN00328</v>
+        <v>TN00890</v>
       </c>
       <c r="C67" t="str">
-        <v>Jeannie</v>
+        <v>Mayur</v>
       </c>
       <c r="D67" t="str">
-        <v>Petracco</v>
+        <v>Kousika</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
-        <v>TN04265</v>
+        <v>PR00095</v>
       </c>
       <c r="C68" t="str">
-        <v>Rushil</v>
+        <v>Devrat</v>
       </c>
       <c r="D68" t="str">
-        <v>Kripa</v>
+        <v>Damarsingh</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
-        <v>VT01803</v>
+        <v>PR04473</v>
       </c>
       <c r="C69" t="str">
-        <v>Freddy</v>
+        <v>Wyn</v>
       </c>
       <c r="D69" t="str">
-        <v>Linford</v>
+        <v>Treadger</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
-        <v>TN02988</v>
+        <v>SQ03321</v>
       </c>
       <c r="C70" t="str">
-        <v>Mahindra</v>
+        <v>Gradey</v>
       </c>
       <c r="D70" t="str">
-        <v>Sreedharan</v>
+        <v>Litton</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
-        <v>TN04175</v>
+        <v>TN01601</v>
       </c>
       <c r="C71" t="str">
-        <v>Hinda</v>
+        <v>Melva</v>
       </c>
       <c r="D71" t="str">
-        <v>Label</v>
+        <v>Jickells</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
-        <v>PR04446</v>
+        <v>TN01601</v>
       </c>
       <c r="C72" t="str">
-        <v>Sameer</v>
+        <v>Melva</v>
       </c>
       <c r="D72" t="str">
-        <v>Shashank</v>
+        <v>Jickells</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
-        <v>TN04166</v>
+        <v>SQ03350</v>
       </c>
       <c r="C73" t="str">
-        <v>Tadio</v>
+        <v>Felice</v>
       </c>
       <c r="D73" t="str">
-        <v>Dowdle</v>
+        <v>McMurty</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
-        <v>PR01211</v>
+        <v>SQ03350</v>
       </c>
       <c r="C74" t="str">
-        <v>Enoch</v>
+        <v>Felice</v>
       </c>
       <c r="D74" t="str">
-        <v>Dowrey</v>
+        <v>McMurty</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
-        <v>VT00534</v>
+        <v>PR00576</v>
       </c>
       <c r="C75" t="str">
-        <v>Roselle</v>
+        <v>Lalitchandra</v>
       </c>
       <c r="D75" t="str">
-        <v>Wandrach</v>
+        <v>Vadali</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
-        <v>SQ02559</v>
+        <v>PR02603</v>
       </c>
       <c r="C76" t="str">
-        <v>Aldrich</v>
+        <v>Dinanath</v>
       </c>
       <c r="D76" t="str">
-        <v>Glenny</v>
+        <v>Simhambhatla</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
-        <v>SQ02559</v>
+        <v>TN00083</v>
       </c>
       <c r="C77" t="str">
-        <v>Aldrich</v>
+        <v>Chandana</v>
       </c>
       <c r="D77" t="str">
-        <v>Glenny</v>
+        <v>Sannidhi</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
-        <v>TN02204</v>
+        <v>VT03988</v>
       </c>
       <c r="C78" t="str">
-        <v>Aldrich</v>
+        <v>Venkat</v>
       </c>
       <c r="D78" t="str">
-        <v>Glenny</v>
+        <v>Kodi</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
-        <v>SQ01395</v>
+        <v>PR02016</v>
       </c>
       <c r="C79" t="str">
-        <v>Dennison</v>
+        <v>Iris</v>
       </c>
       <c r="D79" t="str">
-        <v>Crosswaite</v>
+        <v>Wagg</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="str">
-        <v>VT00476</v>
+        <v>VT04415</v>
       </c>
       <c r="C80" t="str">
-        <v>Adolph</v>
+        <v>Malory</v>
       </c>
       <c r="D80" t="str">
-        <v>Hartin</v>
+        <v>Biles</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="str">
-        <v>TN01210</v>
+        <v>TN02749</v>
       </c>
       <c r="C81" t="str">
-        <v>Alyosha</v>
+        <v>Parasuramudu</v>
       </c>
       <c r="D81" t="str">
-        <v>Riquet</v>
+        <v>Jamakayala</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="str">
-        <v>VT03701</v>
+        <v>VT00740</v>
       </c>
       <c r="C82" t="str">
-        <v>Narois</v>
+        <v>Chitrasen</v>
       </c>
       <c r="D82" t="str">
-        <v>Motiwala</v>
+        <v>Laul</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="str">
-        <v>PR03158</v>
+        <v>SQ01402</v>
       </c>
       <c r="C83" t="str">
-        <v>Danica</v>
+        <v>Sahaj</v>
       </c>
       <c r="D83" t="str">
-        <v>Nayshe</v>
+        <v>Jonnalagadda</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="str">
-        <v>SQ00841</v>
+        <v>VT00578</v>
       </c>
       <c r="C84" t="str">
-        <v>Bhuvan</v>
+        <v>Magnum</v>
       </c>
       <c r="D84" t="str">
-        <v>Pals</v>
+        <v>Locksley</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" t="str">
-        <v>SQ02638</v>
+        <v>PR02275</v>
       </c>
       <c r="C85" t="str">
-        <v>Cara</v>
+        <v>Louise</v>
       </c>
       <c r="D85" t="str">
-        <v>Havers</v>
+        <v>Lamming</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="str">
-        <v>TN01912</v>
+        <v>SQ00914</v>
       </c>
       <c r="C86" t="str">
-        <v>Fred</v>
+        <v>Duran</v>
       </c>
       <c r="D86" t="str">
-        <v>Dudeney</v>
+        <v>Appala</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" t="str">
-        <v>TN01632</v>
+        <v>SQ00914</v>
       </c>
       <c r="C87" t="str">
-        <v>Katya</v>
+        <v>Karuna</v>
       </c>
       <c r="D87" t="str">
-        <v>Hundy</v>
+        <v>Pashupathy</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" t="str">
-        <v>SQ02643</v>
+        <v>VT02532</v>
       </c>
       <c r="C88" t="str">
-        <v>Indu</v>
+        <v>Adey</v>
       </c>
       <c r="D88" t="str">
-        <v>Varada</v>
+        <v>Ryal</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" t="str">
-        <v>TN00698</v>
+        <v>SQ01730</v>
       </c>
       <c r="C89" t="str">
-        <v>Barbara-anne</v>
+        <v>Austine</v>
       </c>
       <c r="D89" t="str">
-        <v>Kenchington</v>
+        <v>Littlewood</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="str">
-        <v>VT01523</v>
+        <v>VT01249</v>
       </c>
       <c r="C90" t="str">
-        <v>Charmane</v>
+        <v>Brendan</v>
       </c>
       <c r="D90" t="str">
-        <v>Heistermann</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" t="str">
-        <v>SQ01177</v>
-      </c>
-      <c r="C91" t="str">
-        <v>Nazeer</v>
-      </c>
-      <c r="D91" t="str">
-        <v>Basha</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" t="str">
-        <v>VT01323</v>
-      </c>
-      <c r="C92" t="str">
-        <v>Mardav</v>
-      </c>
-      <c r="D92" t="str">
-        <v>Ramaswami</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" t="str">
-        <v>SQ00105</v>
-      </c>
-      <c r="C93" t="str">
-        <v>Sarayu</v>
-      </c>
-      <c r="D93" t="str">
-        <v>Ragunathan</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" t="str">
-        <v>PR01346</v>
-      </c>
-      <c r="C94" t="str">
-        <v>Adolph</v>
-      </c>
-      <c r="D94" t="str">
-        <v>McNalley</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95" t="str">
-        <v>SQ02246</v>
-      </c>
-      <c r="C95" t="str">
-        <v>Matias</v>
-      </c>
-      <c r="D95" t="str">
-        <v>Cormack</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96" t="str">
-        <v>SQ04613</v>
-      </c>
-      <c r="C96" t="str">
-        <v>Sarojini</v>
-      </c>
-      <c r="D96" t="str">
-        <v>Naueshwara</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" t="str">
-        <v>TN02883</v>
-      </c>
-      <c r="C97" t="str">
-        <v>John</v>
-      </c>
-      <c r="D97" t="str">
-        <v>Joseph</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" t="str">
-        <v>PR02957</v>
-      </c>
-      <c r="C98" t="str">
-        <v>Vaughn</v>
-      </c>
-      <c r="D98" t="str">
-        <v>Carvill</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" t="str">
-        <v>PR01306</v>
-      </c>
-      <c r="C99" t="str">
-        <v>Patti</v>
-      </c>
-      <c r="D99" t="str">
-        <v>Dradey</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" t="str">
-        <v>VT00596</v>
-      </c>
-      <c r="C100" t="str">
-        <v>Letisha</v>
-      </c>
-      <c r="D100" t="str">
-        <v>Carrett</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" t="str">
-        <v>VT00596</v>
-      </c>
-      <c r="C101" t="str">
-        <v>Letisha</v>
-      </c>
-      <c r="D101" t="str">
-        <v>Carrett</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" t="str">
-        <v>PR00916</v>
-      </c>
-      <c r="C102" t="str">
-        <v>Inger</v>
-      </c>
-      <c r="D102" t="str">
-        <v>Chapelhow</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B103" t="str">
-        <v>VT03993</v>
-      </c>
-      <c r="C103" t="str">
-        <v>Dulce</v>
-      </c>
-      <c r="D103" t="str">
-        <v>Colbeck</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B104" t="str">
-        <v>VT03307</v>
-      </c>
-      <c r="C104" t="str">
-        <v>Tallie</v>
-      </c>
-      <c r="D104" t="str">
-        <v>Chaikovski</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" t="str">
-        <v>VT03298</v>
-      </c>
-      <c r="C105" t="str">
-        <v>Nonah</v>
-      </c>
-      <c r="D105" t="str">
-        <v>Bissell</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" t="str">
-        <v>PR02321</v>
-      </c>
-      <c r="C106" t="str">
-        <v>Evanne</v>
-      </c>
-      <c r="D106" t="str">
-        <v>Sheryn</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B107" t="str">
-        <v>VT03771</v>
-      </c>
-      <c r="C107" t="str">
-        <v>Marjie</v>
-      </c>
-      <c r="D107" t="str">
-        <v>Bamford</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" t="str">
-        <v>PR00113</v>
-      </c>
-      <c r="C108" t="str">
-        <v>Van</v>
-      </c>
-      <c r="D108" t="str">
-        <v>Tuxwell</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B109" t="str">
-        <v>PR00113</v>
-      </c>
-      <c r="C109" t="str">
-        <v>Van</v>
-      </c>
-      <c r="D109" t="str">
-        <v>Tuxwell</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B110" t="str">
-        <v>PR04380</v>
-      </c>
-      <c r="C110" t="str">
-        <v>Van</v>
-      </c>
-      <c r="D110" t="str">
-        <v>Tuxwell</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B111" t="str">
-        <v>TN01566</v>
-      </c>
-      <c r="C111" t="str">
-        <v>Fonzie</v>
-      </c>
-      <c r="D111" t="str">
-        <v>O'Shea</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B112" t="str">
-        <v>TN01876</v>
-      </c>
-      <c r="C112" t="str">
-        <v>Aileen</v>
-      </c>
-      <c r="D112" t="str">
-        <v>McCritchie</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" t="str">
-        <v>TN01876</v>
-      </c>
-      <c r="C113" t="str">
-        <v>Aileen</v>
-      </c>
-      <c r="D113" t="str">
-        <v>McCritchie</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B114" t="str">
-        <v>TN03210</v>
-      </c>
-      <c r="C114" t="str">
-        <v>Suman</v>
-      </c>
-      <c r="D114" t="str">
-        <v>Katte</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115" t="str">
-        <v>VT04137</v>
-      </c>
-      <c r="C115" t="str">
-        <v>Marissa</v>
-      </c>
-      <c r="D115" t="str">
-        <v>Infante</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B116" t="str">
-        <v>TN03355</v>
-      </c>
-      <c r="C116" t="str">
-        <v>Ruby</v>
-      </c>
-      <c r="D116" t="str">
-        <v>Cracie</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B117" t="str">
-        <v>VT00687</v>
-      </c>
-      <c r="C117" t="str">
-        <v>Godavari</v>
-      </c>
-      <c r="D117" t="str">
-        <v>Veena</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B118" t="str">
-        <v>PR02436</v>
-      </c>
-      <c r="C118" t="str">
-        <v>Marmaduke</v>
-      </c>
-      <c r="D118" t="str">
-        <v>Worssam</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B119" t="str">
-        <v>SQ03625</v>
-      </c>
-      <c r="C119" t="str">
-        <v>Fidela</v>
-      </c>
-      <c r="D119" t="str">
-        <v>Artis</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B120" t="str">
-        <v>SQ03112</v>
-      </c>
-      <c r="C120" t="str">
-        <v>Kantimoy</v>
-      </c>
-      <c r="D120" t="str">
-        <v>Pritish</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B121" t="str">
-        <v>PR01476</v>
-      </c>
-      <c r="C121" t="str">
-        <v>Jaishree</v>
-      </c>
-      <c r="D121" t="str">
-        <v>Atasi</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B122" t="str">
-        <v>PR04851</v>
-      </c>
-      <c r="C122" t="str">
-        <v>Rodina</v>
-      </c>
-      <c r="D122" t="str">
-        <v>Drinan</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" t="str">
-        <v>SQ04488</v>
-      </c>
-      <c r="C123" t="str">
-        <v>Ramnath</v>
-      </c>
-      <c r="D123" t="str">
-        <v>Ravuri</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124" t="str">
-        <v>VT04627</v>
-      </c>
-      <c r="C124" t="str">
-        <v>Yvette</v>
-      </c>
-      <c r="D124" t="str">
-        <v>Bett</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B125" t="str">
-        <v>VT01610</v>
-      </c>
-      <c r="C125" t="str">
-        <v>Dhruv</v>
-      </c>
-      <c r="D125" t="str">
-        <v>Manjunath</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B126" t="str">
-        <v>VT01610</v>
-      </c>
-      <c r="C126" t="str">
-        <v>Kunja</v>
-      </c>
-      <c r="D126" t="str">
-        <v>Prashanta</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B127" t="str">
-        <v>PR02113</v>
-      </c>
-      <c r="C127" t="str">
-        <v>Beverie</v>
-      </c>
-      <c r="D127" t="str">
-        <v>Moffet</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B128" t="str">
-        <v>SQ03546</v>
-      </c>
-      <c r="C128" t="str">
-        <v>Amlankusum</v>
-      </c>
-      <c r="D128" t="str">
-        <v>Rajabhushan</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" t="str">
-        <v>TN00182</v>
-      </c>
-      <c r="C129" t="str">
-        <v>Camilla</v>
-      </c>
-      <c r="D129" t="str">
-        <v>Castle</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130" t="str">
-        <v>SQ01026</v>
-      </c>
-      <c r="C130" t="str">
-        <v>Anumati</v>
-      </c>
-      <c r="D130" t="str">
-        <v>Shyamari</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B131" t="str">
-        <v>SQ00612</v>
-      </c>
-      <c r="C131" t="str">
-        <v>Leena</v>
-      </c>
-      <c r="D131" t="str">
-        <v>Bruckshaw</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B132" t="str">
-        <v>TN04067</v>
-      </c>
-      <c r="C132" t="str">
-        <v>Lea</v>
-      </c>
-      <c r="D132" t="str">
-        <v>Chaplin</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B133" t="str">
-        <v>VT03537</v>
-      </c>
-      <c r="C133" t="str">
-        <v>Renaldo</v>
-      </c>
-      <c r="D133" t="str">
-        <v>Thomassin</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B134" t="str">
-        <v>VT03537</v>
-      </c>
-      <c r="C134" t="str">
-        <v>Renaldo</v>
-      </c>
-      <c r="D134" t="str">
-        <v>Thomassin</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B135" t="str">
-        <v>PR03532</v>
-      </c>
-      <c r="C135" t="str">
-        <v>Crawford</v>
-      </c>
-      <c r="D135" t="str">
-        <v>Scad</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B136" t="str">
-        <v>TN03331</v>
-      </c>
-      <c r="C136" t="str">
-        <v>Crawford</v>
-      </c>
-      <c r="D136" t="str">
-        <v>Scad</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B137" t="str">
-        <v>TN04101</v>
-      </c>
-      <c r="C137" t="str">
-        <v>Marline</v>
-      </c>
-      <c r="D137" t="str">
-        <v>Wahncke</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B138" t="str">
-        <v>PR01383</v>
-      </c>
-      <c r="C138" t="str">
-        <v>Addi</v>
-      </c>
-      <c r="D138" t="str">
-        <v>Studdeard</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B139" t="str">
-        <v>SQ04960</v>
-      </c>
-      <c r="C139" t="str">
-        <v>Shubhra</v>
-      </c>
-      <c r="D139" t="str">
-        <v>Potla</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B140" t="str">
-        <v>VT02374</v>
-      </c>
-      <c r="C140" t="str">
-        <v>Delphine</v>
-      </c>
-      <c r="D140" t="str">
-        <v>Jewis</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B141" t="str">
-        <v>VT02374</v>
-      </c>
-      <c r="C141" t="str">
-        <v>Delphine</v>
-      </c>
-      <c r="D141" t="str">
-        <v>Jewis</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B142" t="str">
-        <v>TN00890</v>
-      </c>
-      <c r="C142" t="str">
-        <v>Mayur</v>
-      </c>
-      <c r="D142" t="str">
-        <v>Kousika</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B143" t="str">
-        <v>SQ01697</v>
-      </c>
-      <c r="C143" t="str">
-        <v>Makshi</v>
-      </c>
-      <c r="D143" t="str">
-        <v>Vinutha</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B144" t="str">
-        <v>SQ00187</v>
-      </c>
-      <c r="C144" t="str">
-        <v>Rupak</v>
-      </c>
-      <c r="D144" t="str">
-        <v>Mehra</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B145" t="str">
-        <v>VT04467</v>
-      </c>
-      <c r="C145" t="str">
-        <v>Amal</v>
-      </c>
-      <c r="D145" t="str">
-        <v>Nimesh</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B146" t="str">
-        <v>PR00095</v>
-      </c>
-      <c r="C146" t="str">
-        <v>Devrat</v>
-      </c>
-      <c r="D146" t="str">
-        <v>Damarsingh</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B147" t="str">
-        <v>SQ04598</v>
-      </c>
-      <c r="C147" t="str">
-        <v>Pearla</v>
-      </c>
-      <c r="D147" t="str">
-        <v>Beteriss</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B148" t="str">
-        <v>SQ02371</v>
-      </c>
-      <c r="C148" t="str">
-        <v>Alida</v>
-      </c>
-      <c r="D148" t="str">
-        <v>Welman</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B149" t="str">
-        <v>TN04660</v>
-      </c>
-      <c r="C149" t="str">
-        <v>Thedrick</v>
-      </c>
-      <c r="D149" t="str">
-        <v>Bothwell</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B150" t="str">
-        <v>TN02205</v>
-      </c>
-      <c r="C150" t="str">
-        <v>Madhumati</v>
-      </c>
-      <c r="D150" t="str">
-        <v>Gazala</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B151" t="str">
-        <v>PR04473</v>
-      </c>
-      <c r="C151" t="str">
-        <v>Wyn</v>
-      </c>
-      <c r="D151" t="str">
-        <v>Treadger</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B152" t="str">
-        <v>TN02570</v>
-      </c>
-      <c r="C152" t="str">
-        <v>Grady</v>
-      </c>
-      <c r="D152" t="str">
-        <v>Rochelle</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B153" t="str">
-        <v>TN02570</v>
-      </c>
-      <c r="C153" t="str">
-        <v>Grady</v>
-      </c>
-      <c r="D153" t="str">
-        <v>Rochelle</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B154" t="str">
-        <v>SQ03024</v>
-      </c>
-      <c r="C154" t="str">
-        <v>Inge</v>
-      </c>
-      <c r="D154" t="str">
-        <v>Creer</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B155" t="str">
-        <v>SQ03024</v>
-      </c>
-      <c r="C155" t="str">
-        <v>Inge</v>
-      </c>
-      <c r="D155" t="str">
-        <v>Creer</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B156" t="str">
-        <v>PR00419</v>
-      </c>
-      <c r="C156" t="str">
-        <v>Billi</v>
-      </c>
-      <c r="D156" t="str">
-        <v>Fellgate</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B157" t="str">
-        <v>SQ03321</v>
-      </c>
-      <c r="C157" t="str">
-        <v>Gradey</v>
-      </c>
-      <c r="D157" t="str">
-        <v>Litton</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B158" t="str">
-        <v>SQ01637</v>
-      </c>
-      <c r="C158" t="str">
-        <v>Joaquin</v>
-      </c>
-      <c r="D158" t="str">
-        <v>McVitty</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B159" t="str">
-        <v>TN01601</v>
-      </c>
-      <c r="C159" t="str">
-        <v>Melva</v>
-      </c>
-      <c r="D159" t="str">
-        <v>Jickells</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B160" t="str">
-        <v>TN01601</v>
-      </c>
-      <c r="C160" t="str">
-        <v>Melva</v>
-      </c>
-      <c r="D160" t="str">
-        <v>Jickells</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B161" t="str">
-        <v>TN00258</v>
-      </c>
-      <c r="C161" t="str">
-        <v>Joyce</v>
-      </c>
-      <c r="D161" t="str">
-        <v>Leyband</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B162" t="str">
-        <v>SQ01283</v>
-      </c>
-      <c r="C162" t="str">
-        <v>Barr</v>
-      </c>
-      <c r="D162" t="str">
-        <v>Faughny</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B163" t="str">
-        <v>TN02496</v>
-      </c>
-      <c r="C163" t="str">
-        <v>Ponnan</v>
-      </c>
-      <c r="D163" t="str">
-        <v>Delhi</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B164" t="str">
-        <v>PR00246</v>
-      </c>
-      <c r="C164" t="str">
-        <v>Husein</v>
-      </c>
-      <c r="D164" t="str">
-        <v>Augar</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B165" t="str">
-        <v>TN03169</v>
-      </c>
-      <c r="C165" t="str">
-        <v>Doe</v>
-      </c>
-      <c r="D165" t="str">
-        <v>Clubley</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B166" t="str">
-        <v>TN03169</v>
-      </c>
-      <c r="C166" t="str">
-        <v>Doe</v>
-      </c>
-      <c r="D166" t="str">
-        <v>Clubley</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B167" t="str">
-        <v>TN01028</v>
-      </c>
-      <c r="C167" t="str">
-        <v>Alicea</v>
-      </c>
-      <c r="D167" t="str">
-        <v>Pudsall</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B168" t="str">
-        <v>SQ03350</v>
-      </c>
-      <c r="C168" t="str">
-        <v>Felice</v>
-      </c>
-      <c r="D168" t="str">
-        <v>McMurty</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B169" t="str">
-        <v>SQ03350</v>
-      </c>
-      <c r="C169" t="str">
-        <v>Felice</v>
-      </c>
-      <c r="D169" t="str">
-        <v>McMurty</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B170" t="str">
-        <v>PR03804</v>
-      </c>
-      <c r="C170" t="str">
-        <v>Pratigya</v>
-      </c>
-      <c r="D170" t="str">
-        <v>Rema</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B171" t="str">
-        <v>PR03804</v>
-      </c>
-      <c r="C171" t="str">
-        <v>Sartaj</v>
-      </c>
-      <c r="D171" t="str">
-        <v>Probal</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B172" t="str">
-        <v>SQ01854</v>
-      </c>
-      <c r="C172" t="str">
-        <v>Jessica</v>
-      </c>
-      <c r="D172" t="str">
-        <v>Callcott</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B173" t="str">
-        <v>PR03980</v>
-      </c>
-      <c r="C173" t="str">
-        <v>Kath</v>
-      </c>
-      <c r="D173" t="str">
-        <v>Bletsoe</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B174" t="str">
-        <v>VT01996</v>
-      </c>
-      <c r="C174" t="str">
-        <v>Hali</v>
-      </c>
-      <c r="D174" t="str">
-        <v>Behnecke</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B175" t="str">
-        <v>PR00576</v>
-      </c>
-      <c r="C175" t="str">
-        <v>Lalitchandra</v>
-      </c>
-      <c r="D175" t="str">
-        <v>Vadali</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B176" t="str">
-        <v>TN00227</v>
-      </c>
-      <c r="C176" t="str">
-        <v>Raghuveer</v>
-      </c>
-      <c r="D176" t="str">
-        <v>Yettugunna</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B177" t="str">
-        <v>VT03704</v>
-      </c>
-      <c r="C177" t="str">
-        <v>Egor</v>
-      </c>
-      <c r="D177" t="str">
-        <v>Minto</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B178" t="str">
-        <v>SQ00070</v>
-      </c>
-      <c r="C178" t="str">
-        <v>Larissa</v>
-      </c>
-      <c r="D178" t="str">
-        <v>Ingledow</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B179" t="str">
-        <v>PR03445</v>
-      </c>
-      <c r="C179" t="str">
-        <v>Myrle</v>
-      </c>
-      <c r="D179" t="str">
-        <v>Prandoni</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B180" t="str">
-        <v>PR02603</v>
-      </c>
-      <c r="C180" t="str">
-        <v>Dinanath</v>
-      </c>
-      <c r="D180" t="str">
-        <v>Simhambhatla</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B181" t="str">
-        <v>TN00083</v>
-      </c>
-      <c r="C181" t="str">
-        <v>Chandana</v>
-      </c>
-      <c r="D181" t="str">
-        <v>Sannidhi</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B182" t="str">
-        <v>VT01703</v>
-      </c>
-      <c r="C182" t="str">
-        <v>Upendra</v>
-      </c>
-      <c r="D182" t="str">
-        <v>Swati</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B183" t="str">
-        <v>VT02417</v>
-      </c>
-      <c r="C183" t="str">
-        <v>Evangelina</v>
-      </c>
-      <c r="D183" t="str">
-        <v>Lergan</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B184" t="str">
-        <v>SQ00286</v>
-      </c>
-      <c r="C184" t="str">
-        <v>Ilesh</v>
-      </c>
-      <c r="D184" t="str">
-        <v>Dasgupta</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B185" t="str">
-        <v>VT02260</v>
-      </c>
-      <c r="C185" t="str">
-        <v>Rhiamon</v>
-      </c>
-      <c r="D185" t="str">
-        <v>Mollison</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B186" t="str">
-        <v>TN00735</v>
-      </c>
-      <c r="C186" t="str">
-        <v>Caresa</v>
-      </c>
-      <c r="D186" t="str">
-        <v>Christer</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B187" t="str">
-        <v>TN00735</v>
-      </c>
-      <c r="C187" t="str">
-        <v>Caresa</v>
-      </c>
-      <c r="D187" t="str">
-        <v>Christer</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B188" t="str">
-        <v>VT03988</v>
-      </c>
-      <c r="C188" t="str">
-        <v>Venkat</v>
-      </c>
-      <c r="D188" t="str">
-        <v>Kodi</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B189" t="str">
-        <v>PR02016</v>
-      </c>
-      <c r="C189" t="str">
-        <v>Iris</v>
-      </c>
-      <c r="D189" t="str">
-        <v>Wagg</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B190" t="str">
-        <v>VT04415</v>
-      </c>
-      <c r="C190" t="str">
-        <v>Malory</v>
-      </c>
-      <c r="D190" t="str">
-        <v>Biles</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B191" t="str">
-        <v>TN01701</v>
-      </c>
-      <c r="C191" t="str">
-        <v>Yves</v>
-      </c>
-      <c r="D191" t="str">
-        <v>Pawlik</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B192" t="str">
-        <v>VT01092</v>
-      </c>
-      <c r="C192" t="str">
-        <v>Tabby</v>
-      </c>
-      <c r="D192" t="str">
-        <v>Astall</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B193" t="str">
-        <v>TN02749</v>
-      </c>
-      <c r="C193" t="str">
-        <v>Parasuramudu</v>
-      </c>
-      <c r="D193" t="str">
-        <v>Jamakayala</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B194" t="str">
-        <v>SQ02565</v>
-      </c>
-      <c r="C194" t="str">
-        <v>Konstantin</v>
-      </c>
-      <c r="D194" t="str">
-        <v>Timblett</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B195" t="str">
-        <v>SQ00691</v>
-      </c>
-      <c r="C195" t="str">
-        <v>Verla</v>
-      </c>
-      <c r="D195" t="str">
-        <v>Timmis</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B196" t="str">
-        <v>VT02313</v>
-      </c>
-      <c r="C196" t="str">
-        <v>Thekla</v>
-      </c>
-      <c r="D196" t="str">
-        <v>Lynnett</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B197" t="str">
-        <v>VT02313</v>
-      </c>
-      <c r="C197" t="str">
-        <v>Thekla</v>
-      </c>
-      <c r="D197" t="str">
-        <v>Lynnett</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B198" t="str">
-        <v>VT01246</v>
-      </c>
-      <c r="C198" t="str">
-        <v>Zach</v>
-      </c>
-      <c r="D198" t="str">
-        <v>Polon</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B199" t="str">
-        <v>TN04892</v>
-      </c>
-      <c r="C199" t="str">
-        <v>Luca</v>
-      </c>
-      <c r="D199" t="str">
-        <v>Wolstenholme</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B200" t="str">
-        <v>PR00882</v>
-      </c>
-      <c r="C200" t="str">
-        <v>Jill</v>
-      </c>
-      <c r="D200" t="str">
-        <v>Shipsey</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B201" t="str">
-        <v>TN00464</v>
-      </c>
-      <c r="C201" t="str">
-        <v>Gopal</v>
-      </c>
-      <c r="D201" t="str">
-        <v>Venkata</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B202" t="str">
-        <v>SQ02424</v>
-      </c>
-      <c r="C202" t="str">
-        <v>Kevalkumar</v>
-      </c>
-      <c r="D202" t="str">
-        <v>Solanki</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B203" t="str">
-        <v>VT03849</v>
-      </c>
-      <c r="C203" t="str">
-        <v>Leonidas</v>
-      </c>
-      <c r="D203" t="str">
-        <v>Cavaney</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B204" t="str">
-        <v>SQ02582</v>
-      </c>
-      <c r="C204" t="str">
-        <v>Kaishori</v>
-      </c>
-      <c r="D204" t="str">
-        <v>Harathi</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B205" t="str">
-        <v>VT02118</v>
-      </c>
-      <c r="C205" t="str">
-        <v>Oorjit</v>
-      </c>
-      <c r="D205" t="str">
-        <v>Nandanavanam</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B206" t="str">
-        <v>SQ02525</v>
-      </c>
-      <c r="C206" t="str">
-        <v>Mickie</v>
-      </c>
-      <c r="D206" t="str">
-        <v>Dagwell</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B207" t="str">
-        <v>PR01662</v>
-      </c>
-      <c r="C207" t="str">
-        <v>Genevra</v>
-      </c>
-      <c r="D207" t="str">
-        <v>Friday</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B208" t="str">
-        <v>PR00893</v>
-      </c>
-      <c r="C208" t="str">
-        <v>Vasavi</v>
-      </c>
-      <c r="D208" t="str">
-        <v>Veeravasarapu</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B209" t="str">
-        <v>SQ01519</v>
-      </c>
-      <c r="C209" t="str">
-        <v>Caron</v>
-      </c>
-      <c r="D209" t="str">
-        <v>Kolakovic</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B210" t="str">
-        <v>VT00194</v>
-      </c>
-      <c r="C210" t="str">
-        <v>Violante</v>
-      </c>
-      <c r="D210" t="str">
-        <v>Courtonne</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B211" t="str">
-        <v>PR01943</v>
-      </c>
-      <c r="C211" t="str">
-        <v>Rameshwari</v>
-      </c>
-      <c r="D211" t="str">
-        <v>Chikodi</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B212" t="str">
-        <v>VT00336</v>
-      </c>
-      <c r="C212" t="str">
-        <v>Shevantilal</v>
-      </c>
-      <c r="D212" t="str">
-        <v>Muppala</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B213" t="str">
-        <v>PR04366</v>
-      </c>
-      <c r="C213" t="str">
-        <v>Carry</v>
-      </c>
-      <c r="D213" t="str">
-        <v>Loblie</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B214" t="str">
-        <v>VT04984</v>
-      </c>
-      <c r="C214" t="str">
-        <v>Dell</v>
-      </c>
-      <c r="D214" t="str">
-        <v>Molloy</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B215" t="str">
-        <v>VT00740</v>
-      </c>
-      <c r="C215" t="str">
-        <v>Chitrasen</v>
-      </c>
-      <c r="D215" t="str">
-        <v>Laul</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B216" t="str">
-        <v>SQ02223</v>
-      </c>
-      <c r="C216" t="str">
-        <v>Pippy</v>
-      </c>
-      <c r="D216" t="str">
-        <v>Shepperd</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B217" t="str">
-        <v>SQ00960</v>
-      </c>
-      <c r="C217" t="str">
-        <v>Calvin</v>
-      </c>
-      <c r="D217" t="str">
-        <v>O'Carroll</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B218" t="str">
-        <v>SQ01402</v>
-      </c>
-      <c r="C218" t="str">
-        <v>Sahaj</v>
-      </c>
-      <c r="D218" t="str">
-        <v>Jonnalagadda</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B219" t="str">
-        <v>TN03416</v>
-      </c>
-      <c r="C219" t="str">
-        <v>Seward</v>
-      </c>
-      <c r="D219" t="str">
-        <v>Kubera</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B220" t="str">
-        <v>VT00578</v>
-      </c>
-      <c r="C220" t="str">
-        <v>Magnum</v>
-      </c>
-      <c r="D220" t="str">
-        <v>Locksley</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B221" t="str">
-        <v>TN00727</v>
-      </c>
-      <c r="C221" t="str">
-        <v>Dulsea</v>
-      </c>
-      <c r="D221" t="str">
-        <v>Folkes</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B222" t="str">
-        <v>PR02275</v>
-      </c>
-      <c r="C222" t="str">
-        <v>Louise</v>
-      </c>
-      <c r="D222" t="str">
-        <v>Lamming</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B223" t="str">
-        <v>SQ00450</v>
-      </c>
-      <c r="C223" t="str">
-        <v>Louise</v>
-      </c>
-      <c r="D223" t="str">
-        <v>Lamming</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B224" t="str">
-        <v>SQ00360</v>
-      </c>
-      <c r="C224" t="str">
-        <v>Orlando</v>
-      </c>
-      <c r="D224" t="str">
-        <v>Gorstidge</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B225" t="str">
-        <v>SQ01998</v>
-      </c>
-      <c r="C225" t="str">
-        <v>Vanmala</v>
-      </c>
-      <c r="D225" t="str">
-        <v>Shriharsha</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B226" t="str">
-        <v>SQ01998</v>
-      </c>
-      <c r="C226" t="str">
-        <v>Sahas</v>
-      </c>
-      <c r="D226" t="str">
-        <v>Sanabhi</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B227" t="str">
-        <v>VT02539</v>
-      </c>
-      <c r="C227" t="str">
-        <v>Devinne</v>
-      </c>
-      <c r="D227" t="str">
-        <v>Tuny</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B228" t="str">
-        <v>TN03068</v>
-      </c>
-      <c r="C228" t="str">
-        <v>Gumwant</v>
-      </c>
-      <c r="D228" t="str">
-        <v>Veera</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B229" t="str">
-        <v>TN03032</v>
-      </c>
-      <c r="C229" t="str">
-        <v>Jaipal</v>
-      </c>
-      <c r="D229" t="str">
-        <v>Potanapudi</v>
-      </c>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B230" t="str">
-        <v>TN03032</v>
-      </c>
-      <c r="C230" t="str">
-        <v>Fullara</v>
-      </c>
-      <c r="D230" t="str">
-        <v>Sushanti</v>
-      </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B231" t="str">
-        <v>PR03271</v>
-      </c>
-      <c r="C231" t="str">
-        <v>Stan</v>
-      </c>
-      <c r="D231" t="str">
-        <v>Tolliday</v>
-      </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B232" t="str">
-        <v>VT04273</v>
-      </c>
-      <c r="C232" t="str">
-        <v>Brad</v>
-      </c>
-      <c r="D232" t="str">
-        <v>Gumb</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B233" t="str">
-        <v>SQ00914</v>
-      </c>
-      <c r="C233" t="str">
-        <v>Duran</v>
-      </c>
-      <c r="D233" t="str">
-        <v>Appala</v>
-      </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B234" t="str">
-        <v>SQ00914</v>
-      </c>
-      <c r="C234" t="str">
-        <v>Karuna</v>
-      </c>
-      <c r="D234" t="str">
-        <v>Pashupathy</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B235" t="str">
-        <v>TN00214</v>
-      </c>
-      <c r="C235" t="str">
-        <v>Devsena</v>
-      </c>
-      <c r="D235" t="str">
-        <v>Veluvalapalli</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B236" t="str">
-        <v>TN00214</v>
-      </c>
-      <c r="C236" t="str">
-        <v>Hemavati</v>
-      </c>
-      <c r="D236" t="str">
-        <v>Muthiah</v>
-      </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B237" t="str">
-        <v>PR02782</v>
-      </c>
-      <c r="C237" t="str">
-        <v>Isaak</v>
-      </c>
-      <c r="D237" t="str">
-        <v>Rawne</v>
-      </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B238" t="str">
-        <v>VT03500</v>
-      </c>
-      <c r="C238" t="str">
-        <v>Shiuli</v>
-      </c>
-      <c r="D238" t="str">
-        <v>Sapna</v>
-      </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B239" t="str">
-        <v>PR03137</v>
-      </c>
-      <c r="C239" t="str">
-        <v>Jagajeet</v>
-      </c>
-      <c r="D239" t="str">
-        <v>Viraj</v>
-      </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B240" t="str">
-        <v>PR01956</v>
-      </c>
-      <c r="C240" t="str">
-        <v>Jamesy</v>
-      </c>
-      <c r="D240" t="str">
-        <v>O'Ferris</v>
-      </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B241" t="str">
-        <v>PR01956</v>
-      </c>
-      <c r="C241" t="str">
-        <v>Jamesy</v>
-      </c>
-      <c r="D241" t="str">
-        <v>O'Ferris</v>
-      </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B242" t="str">
-        <v>VT03552</v>
-      </c>
-      <c r="C242" t="str">
-        <v>Kamalakshi</v>
-      </c>
-      <c r="D242" t="str">
-        <v>Mukundan</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B243" t="str">
-        <v>PR03844</v>
-      </c>
-      <c r="C243" t="str">
-        <v>Brose</v>
-      </c>
-      <c r="D243" t="str">
-        <v>MacCorkell</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B244" t="str">
-        <v>PR01055</v>
-      </c>
-      <c r="C244" t="str">
-        <v>Devasree</v>
-      </c>
-      <c r="D244" t="str">
-        <v>Fullara</v>
-      </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B245" t="str">
-        <v>TN02798</v>
-      </c>
-      <c r="C245" t="str">
-        <v>Krittika</v>
-      </c>
-      <c r="D245" t="str">
-        <v>Gaekwad</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B246" t="str">
-        <v>VT02532</v>
-      </c>
-      <c r="C246" t="str">
-        <v>Adey</v>
-      </c>
-      <c r="D246" t="str">
-        <v>Ryal</v>
-      </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B247" t="str">
-        <v>SQ01730</v>
-      </c>
-      <c r="C247" t="str">
-        <v>Austine</v>
-      </c>
-      <c r="D247" t="str">
-        <v>Littlewood</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B248" t="str">
-        <v>PR03034</v>
-      </c>
-      <c r="C248" t="str">
-        <v>Sreenivasa</v>
-      </c>
-      <c r="D248" t="str">
-        <v>Naik</v>
-      </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B249" t="str">
-        <v>TN03097</v>
-      </c>
-      <c r="C249" t="str">
-        <v>Bendite</v>
-      </c>
-      <c r="D249" t="str">
-        <v>Bloan</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B250" t="str">
-        <v>SQ01829</v>
-      </c>
-      <c r="C250" t="str">
-        <v>Mabel</v>
-      </c>
-      <c r="D250" t="str">
-        <v>Orrow</v>
-      </c>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B251" t="str">
-        <v>VT01740</v>
-      </c>
-      <c r="C251" t="str">
-        <v>Ginger</v>
-      </c>
-      <c r="D251" t="str">
-        <v>Myott</v>
-      </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B252" t="str">
-        <v>TN04775</v>
-      </c>
-      <c r="C252" t="str">
-        <v>Hridaynath</v>
-      </c>
-      <c r="D252" t="str">
-        <v>Tendulkar</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B253" t="str">
-        <v>VT01249</v>
-      </c>
-      <c r="C253" t="str">
-        <v>Brendan</v>
-      </c>
-      <c r="D253" t="str">
         <v>Edgeller</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B254" t="str">
-        <v>TN01396</v>
-      </c>
-      <c r="C254" t="str">
-        <v>Koral</v>
-      </c>
-      <c r="D254" t="str">
-        <v>Gerriet</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B255" t="str">
-        <v>VT04905</v>
-      </c>
-      <c r="C255" t="str">
-        <v>Suchira</v>
-      </c>
-      <c r="D255" t="str">
-        <v>Bhanupriya</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B256" t="str">
-        <v>PR00770</v>
-      </c>
-      <c r="C256" t="str">
-        <v>Beryl</v>
-      </c>
-      <c r="D256" t="str">
-        <v>Burnsyde</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B257" t="str">
-        <v>TN02727</v>
-      </c>
-      <c r="C257" t="str">
-        <v>Wald</v>
-      </c>
-      <c r="D257" t="str">
-        <v>Bountiff</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B258" t="str">
-        <v>TN01256</v>
-      </c>
-      <c r="C258" t="str">
-        <v>Shattesh</v>
-      </c>
-      <c r="D258" t="str">
-        <v>Utpat</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B259" t="str">
-        <v>TN01256</v>
-      </c>
-      <c r="C259" t="str">
-        <v>Sawini</v>
-      </c>
-      <c r="D259" t="str">
-        <v>Chandan</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B260" t="str">
-        <v>VT02663</v>
-      </c>
-      <c r="C260" t="str">
-        <v>Sravanthi</v>
-      </c>
-      <c r="D260" t="str">
-        <v>Chalaki</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B261" t="str">
-        <v>TN02397</v>
-      </c>
-      <c r="C261" t="str">
-        <v>Mendel</v>
-      </c>
-      <c r="D261" t="str">
-        <v>Gentsch</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B262" t="str">
-        <v>SQ04437</v>
-      </c>
-      <c r="C262" t="str">
-        <v>Hephzibah</v>
-      </c>
-      <c r="D262" t="str">
-        <v>Summerell</v>
-      </c>
-    </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B263" t="str">
-        <v>VT04373</v>
-      </c>
-      <c r="C263" t="str">
-        <v>Edi</v>
-      </c>
-      <c r="D263" t="str">
-        <v>Hofton</v>
       </c>
     </row>
   </sheetData>
@@ -7974,8 +6054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B479A4F1-4E45-484A-ABC8-9580270FCB97}">
   <dimension ref="A1:N261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="C1" zoomScale="177" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8039,7 +6119,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -8129,7 +6209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -8174,7 +6254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -8219,7 +6299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -8264,7 +6344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>722</v>
       </c>
@@ -8309,7 +6389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>722</v>
       </c>
@@ -8354,7 +6434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -8399,7 +6479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -8444,7 +6524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>680</v>
       </c>
@@ -8489,7 +6569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>668</v>
       </c>
@@ -8534,7 +6614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>457</v>
       </c>
@@ -8714,7 +6794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -8759,7 +6839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>643</v>
       </c>
@@ -8804,7 +6884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>643</v>
       </c>
@@ -8849,7 +6929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -8984,7 +7064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -9029,7 +7109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>242</v>
       </c>
@@ -9074,7 +7154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>753</v>
       </c>
@@ -9164,7 +7244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>431</v>
       </c>
@@ -9209,7 +7289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>381</v>
       </c>
@@ -9254,7 +7334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>354</v>
       </c>
@@ -9299,7 +7379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>366</v>
       </c>
@@ -9344,7 +7424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>545</v>
       </c>
@@ -9389,7 +7469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>545</v>
       </c>
@@ -9434,7 +7514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>747</v>
       </c>
@@ -9479,7 +7559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>733</v>
       </c>
@@ -9524,7 +7604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -9569,7 +7649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>345</v>
       </c>
@@ -9614,7 +7694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -9659,7 +7739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -9704,7 +7784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>573</v>
       </c>
@@ -9749,7 +7829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>303</v>
       </c>
@@ -9794,7 +7874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>303</v>
       </c>
@@ -9839,7 +7919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -9929,7 +8009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>369</v>
       </c>
@@ -9974,7 +8054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>628</v>
       </c>
@@ -10019,7 +8099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>363</v>
       </c>
@@ -10064,7 +8144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>402</v>
       </c>
@@ -10109,7 +8189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>562</v>
       </c>
@@ -10154,7 +8234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>321</v>
       </c>
@@ -10199,7 +8279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>542</v>
       </c>
@@ -10244,7 +8324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>542</v>
       </c>
@@ -10289,7 +8369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>460</v>
       </c>
@@ -10334,7 +8414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>568</v>
       </c>
@@ -10379,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>568</v>
       </c>
@@ -10424,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>488</v>
       </c>
@@ -10469,7 +8549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -10514,7 +8594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -10559,7 +8639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>500</v>
       </c>
@@ -10604,7 +8684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>500</v>
       </c>
@@ -10649,7 +8729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>659</v>
       </c>
@@ -10694,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -10739,7 +8819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -10784,7 +8864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>378</v>
       </c>
@@ -10829,7 +8909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>608</v>
       </c>
@@ -10874,7 +8954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>425</v>
       </c>
@@ -10919,7 +8999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>565</v>
       </c>
@@ -11009,7 +9089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>515</v>
       </c>
@@ -11054,7 +9134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>559</v>
       </c>
@@ -11099,7 +9179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -11144,7 +9224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>556</v>
       </c>
@@ -11189,7 +9269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -11234,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>590</v>
       </c>
@@ -11279,7 +9359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>327</v>
       </c>
@@ -11324,7 +9404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>327</v>
       </c>
@@ -11369,7 +9449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>484</v>
       </c>
@@ -11414,7 +9494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>271</v>
       </c>
@@ -11459,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>588</v>
       </c>
@@ -11504,7 +9584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>449</v>
       </c>
@@ -11549,7 +9629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>701</v>
       </c>
@@ -11594,7 +9674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>174</v>
       </c>
@@ -11639,7 +9719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -11684,7 +9764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>339</v>
       </c>
@@ -11729,7 +9809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>481</v>
       </c>
@@ -11774,7 +9854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>472</v>
       </c>
@@ -11819,7 +9899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>342</v>
       </c>
@@ -11864,7 +9944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>434</v>
       </c>
@@ -11909,7 +9989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>620</v>
       </c>
@@ -11954,7 +10034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>265</v>
       </c>
@@ -11999,7 +10079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>617</v>
       </c>
@@ -12089,7 +10169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -12134,7 +10214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>312</v>
       </c>
@@ -12179,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>399</v>
       </c>
@@ -12224,7 +10304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>512</v>
       </c>
@@ -12269,7 +10349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -12314,7 +10394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -12359,7 +10439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>596</v>
       </c>
@@ -12404,7 +10484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>596</v>
       </c>
@@ -12449,7 +10529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>89</v>
       </c>
@@ -12539,7 +10619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>686</v>
       </c>
@@ -12584,7 +10664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>683</v>
       </c>
@@ -12629,7 +10709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -12674,7 +10754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>707</v>
       </c>
@@ -12719,7 +10799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -12764,7 +10844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -12809,7 +10889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>203</v>
       </c>
@@ -12854,7 +10934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>466</v>
       </c>
@@ -12899,7 +10979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>478</v>
       </c>
@@ -12944,7 +11024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>478</v>
       </c>
@@ -12989,7 +11069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>532</v>
       </c>
@@ -13034,7 +11114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>727</v>
       </c>
@@ -13079,7 +11159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>536</v>
       </c>
@@ -13124,7 +11204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>599</v>
       </c>
@@ -13169,7 +11249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>156</v>
       </c>
@@ -13304,7 +11384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -13349,7 +11429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>217</v>
       </c>
@@ -13394,7 +11474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>387</v>
       </c>
@@ -13439,7 +11519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>750</v>
       </c>
@@ -13484,7 +11564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>623</v>
       </c>
@@ -13529,7 +11609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>623</v>
       </c>
@@ -13574,7 +11654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -13619,7 +11699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>372</v>
       </c>
@@ -13664,7 +11744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>411</v>
       </c>
@@ -13709,7 +11789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -13754,7 +11834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>245</v>
       </c>
@@ -13799,7 +11879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>550</v>
       </c>
@@ -13844,7 +11924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>695</v>
       </c>
@@ -13889,7 +11969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>695</v>
       </c>
@@ -13934,7 +12014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>183</v>
       </c>
@@ -13979,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>535</v>
       </c>
@@ -14024,7 +12104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>553</v>
       </c>
@@ -14069,7 +12149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>115</v>
       </c>
@@ -14114,7 +12194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>405</v>
       </c>
@@ -14159,7 +12239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>662</v>
       </c>
@@ -14204,7 +12284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>662</v>
       </c>
@@ -14249,7 +12329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>443</v>
       </c>
@@ -14294,7 +12374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>286</v>
       </c>
@@ -14339,7 +12419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>232</v>
       </c>
@@ -14384,7 +12464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>744</v>
       </c>
@@ -14429,7 +12509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>46</v>
       </c>
@@ -14474,7 +12554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>390</v>
       </c>
@@ -14519,7 +12599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -14564,7 +12644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>570</v>
       </c>
@@ -14609,7 +12689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>485</v>
       </c>
@@ -14654,7 +12734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>207</v>
       </c>
@@ -14699,7 +12779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>497</v>
       </c>
@@ -14744,7 +12824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>497</v>
       </c>
@@ -14789,7 +12869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>348</v>
       </c>
@@ -14834,7 +12914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>348</v>
       </c>
@@ -14879,7 +12959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>67</v>
       </c>
@@ -14924,7 +13004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>357</v>
       </c>
@@ -14969,7 +13049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>283</v>
       </c>
@@ -15104,7 +13184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>422</v>
       </c>
@@ -15149,7 +13229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>268</v>
       </c>
@@ -15194,7 +13274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>494</v>
       </c>
@@ -15239,7 +13319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>63</v>
       </c>
@@ -15284,7 +13364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>529</v>
       </c>
@@ -15329,7 +13409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>529</v>
       </c>
@@ -15374,7 +13454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>446</v>
       </c>
@@ -15419,7 +13499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>360</v>
       </c>
@@ -15464,7 +13544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>360</v>
       </c>
@@ -15509,7 +13589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -15554,7 +13634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>186</v>
       </c>
@@ -15599,7 +13679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>295</v>
       </c>
@@ -15644,7 +13724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -15689,7 +13769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>646</v>
       </c>
@@ -15734,7 +13814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>70</v>
       </c>
@@ -15779,7 +13859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>419</v>
       </c>
@@ -15824,7 +13904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>704</v>
       </c>
@@ -15869,7 +13949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>223</v>
       </c>
@@ -15914,7 +13994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -15959,7 +14039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>159</v>
       </c>
@@ -16004,7 +14084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>408</v>
       </c>
@@ -16049,7 +14129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>631</v>
       </c>
@@ -16139,7 +14219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>235</v>
       </c>
@@ -16184,7 +14264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>652</v>
       </c>
@@ -16229,7 +14309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>440</v>
       </c>
@@ -16274,7 +14354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>440</v>
       </c>
@@ -16319,7 +14399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>713</v>
       </c>
@@ -16364,7 +14444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>133</v>
       </c>
@@ -16454,7 +14534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>475</v>
       </c>
@@ -16499,7 +14579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>605</v>
       </c>
@@ -16544,7 +14624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>506</v>
       </c>
@@ -16589,7 +14669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>330</v>
       </c>
@@ -16634,7 +14714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>248</v>
       </c>
@@ -16679,7 +14759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>656</v>
       </c>
@@ -16724,7 +14804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>656</v>
       </c>
@@ -16769,7 +14849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>611</v>
       </c>
@@ -16859,7 +14939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>82</v>
       </c>
@@ -16904,7 +14984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>428</v>
       </c>
@@ -16949,7 +15029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -16994,7 +15074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>710</v>
       </c>
@@ -17039,7 +15119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>333</v>
       </c>
@@ -17084,7 +15164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>649</v>
       </c>
@@ -17129,7 +15209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>324</v>
       </c>
@@ -17174,7 +15254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>122</v>
       </c>
@@ -17309,7 +15389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>582</v>
       </c>
@@ -17354,7 +15434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>125</v>
       </c>
@@ -17399,7 +15479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>585</v>
       </c>
@@ -17444,7 +15524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>200</v>
       </c>
@@ -17489,7 +15569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>759</v>
       </c>
@@ -17534,7 +15614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>602</v>
       </c>
@@ -17579,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>309</v>
       </c>
@@ -17624,7 +15704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>259</v>
       </c>
@@ -17669,7 +15749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>274</v>
       </c>
@@ -17714,7 +15794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>539</v>
       </c>
@@ -17759,7 +15839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>593</v>
       </c>
@@ -17804,7 +15884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -17849,7 +15929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>146</v>
       </c>
@@ -17894,7 +15974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>241</v>
       </c>
@@ -17939,7 +16019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -17984,7 +16064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>298</v>
       </c>
@@ -18029,7 +16109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>298</v>
       </c>
@@ -18074,7 +16154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>674</v>
       </c>
@@ -18119,7 +16199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>522</v>
       </c>
@@ -18164,7 +16244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>518</v>
       </c>
@@ -18209,7 +16289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>518</v>
       </c>
@@ -18254,7 +16334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>177</v>
       </c>
@@ -18299,7 +16379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>730</v>
       </c>
@@ -18344,7 +16424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -18389,7 +16469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -18434,7 +16514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>414</v>
       </c>
@@ -18479,7 +16559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>414</v>
       </c>
@@ -18524,7 +16604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>162</v>
       </c>
@@ -18569,7 +16649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>692</v>
       </c>
@@ -18614,7 +16694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>171</v>
       </c>
@@ -18659,7 +16739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>128</v>
       </c>
@@ -18704,7 +16784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>128</v>
       </c>
@@ -18749,7 +16829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>698</v>
       </c>
@@ -18794,7 +16874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>191</v>
       </c>
@@ -18839,7 +16919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>93</v>
       </c>
@@ -18884,7 +16964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>509</v>
       </c>
@@ -18929,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>671</v>
       </c>
@@ -18974,7 +17054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>289</v>
       </c>
@@ -19019,7 +17099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>168</v>
       </c>
@@ -19064,7 +17144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>526</v>
       </c>
@@ -19109,7 +17189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>292</v>
       </c>
@@ -19154,7 +17234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>634</v>
       </c>
@@ -19199,7 +17279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>576</v>
       </c>
@@ -19244,7 +17324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>614</v>
       </c>
@@ -19289,7 +17369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>463</v>
       </c>
@@ -19334,7 +17414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>756</v>
       </c>
@@ -19379,7 +17459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>78</v>
       </c>
@@ -19424,7 +17504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>503</v>
       </c>
@@ -19559,7 +17639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>677</v>
       </c>
@@ -19604,7 +17684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>491</v>
       </c>
@@ -19649,7 +17729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>384</v>
       </c>
@@ -19694,7 +17774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>738</v>
       </c>
@@ -23360,7 +21440,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23892,7 +21972,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24208,7 +22288,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24317,7 +22397,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
